--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_10_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_10_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>388356.0660943587</v>
+        <v>384658.7253213975</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6041599.022209644</v>
+        <v>6041599.022209647</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>366.837898627662</v>
       </c>
       <c r="C2" t="n">
-        <v>285.4023853522779</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
@@ -800,7 +800,7 @@
         <v>202.9234074721264</v>
       </c>
       <c r="W3" t="n">
-        <v>194.556163395115</v>
+        <v>194.5561633951151</v>
       </c>
       <c r="X3" t="n">
         <v>161.8425727710037</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -831,10 +831,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>138.6039232334028</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -879,13 +879,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>269.363622410876</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
@@ -907,16 +907,16 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>219.0077998940699</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>194.2000820144829</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>70.09091316242234</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>61.24107579067448</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1122,7 +1122,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1141,10 +1141,10 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>286.2745171927693</v>
+        <v>355.0502358343971</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
@@ -1153,7 +1153,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -1201,7 +1201,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1308,10 +1308,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>34.79484432979908</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>206.0363027563681</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>411.3411919106928</v>
       </c>
       <c r="E11" t="n">
-        <v>131.975558987749</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>279.3132495495361</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>68.66493745130344</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6496841845384</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1533,19 +1533,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.9121534983251</v>
       </c>
       <c r="H13" t="n">
-        <v>37.6244474041232</v>
+        <v>61.36660818273818</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>15.89194317638263</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>156.5440010023451</v>
       </c>
       <c r="T13" t="n">
         <v>237.9909010247135</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3453905686778</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>190.8018313703139</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>137.4174294561788</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>68.66493745130344</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9121534983251</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>136.2925141055032</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>78.25386933754547</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>15.89194317638263</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>79.29000057390414</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.9909010247135</v>
+        <v>139.5223864681371</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3453905686778</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>87.01288593846363</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,16 +1897,16 @@
         <v>68.66493745130344</v>
       </c>
       <c r="T17" t="n">
-        <v>212.0583497802358</v>
+        <v>202.8775448915594</v>
       </c>
       <c r="U17" t="n">
         <v>255.6496841845384</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9121534983251</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>136.2925141055032</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>78.25386933754547</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>90.61974610291499</v>
+        <v>225.5911665977813</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3453905686778</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>171.4644004167441</v>
+        <v>279.3132495495361</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>68.66493745130344</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.0583497802358</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6496841845384</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>228.5725763814215</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>61.37819813727938</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>71.78432293329666</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>78.25386933754547</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.9909010247135</v>
       </c>
       <c r="U22" t="n">
         <v>277.3453905686778</v>
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>51.81423207463875</v>
       </c>
       <c r="G23" t="n">
         <v>398.7747202237783</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>279.3132495495361</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>68.66493745130344</v>
       </c>
       <c r="T23" t="n">
-        <v>190.9778288632199</v>
+        <v>212.0583497802358</v>
       </c>
       <c r="U23" t="n">
         <v>255.6496841845384</v>
@@ -2490,10 +2490,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>49.0793445108737</v>
+        <v>163.9121534983251</v>
       </c>
       <c r="H25" t="n">
-        <v>136.2925141055032</v>
+        <v>21.4597051180518</v>
       </c>
       <c r="I25" t="n">
         <v>78.25386933754547</v>
@@ -2560,16 +2560,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>63.77654873998475</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2611,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6496841845384</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>316.7687570777519</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>55.42002850242272</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>15.89194317638263</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>156.5440010023451</v>
@@ -2769,7 +2769,7 @@
         <v>237.9909010247135</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3453905686778</v>
+        <v>178.404524757609</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2797,16 +2797,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.7747202237783</v>
       </c>
       <c r="H29" t="n">
         <v>279.3132495495361</v>
@@ -2848,19 +2848,19 @@
         <v>212.0583497802358</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6496841845384</v>
+        <v>224.6323426876669</v>
       </c>
       <c r="V29" t="n">
-        <v>321.536077674878</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2967,10 +2967,10 @@
         <v>163.9121534983251</v>
       </c>
       <c r="H31" t="n">
-        <v>136.2925141055032</v>
+        <v>37.3516482944343</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>78.25386933754547</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>203.392344153633</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3085,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6496841845384</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>260.4800443379171</v>
       </c>
       <c r="W32" t="n">
-        <v>43.34327563102216</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>71.31197167880433</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -3201,7 +3201,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>49.0793445108746</v>
+        <v>163.9121534983251</v>
       </c>
       <c r="H34" t="n">
         <v>136.2925141055032</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>15.89194317638263</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>156.5440010023451</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>279.3132495495361</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>68.66493745130344</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>245.3046816966433</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>40.97527109768292</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>15.89194317638263</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>41.71119201489484</v>
+        <v>156.5440010023451</v>
       </c>
       <c r="T37" t="n">
         <v>237.9909010247135</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3453905686778</v>
+        <v>178.404524757609</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>377.9625755964557</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.7747202237783</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>68.66493745130344</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.0583497802358</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>33.24633191640768</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.60313519127735</v>
+        <v>156.5440010023451</v>
       </c>
       <c r="T40" t="n">
-        <v>237.9909010247135</v>
+        <v>139.0500352136449</v>
       </c>
       <c r="U40" t="n">
         <v>277.3453905686778</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>52.43216686060225</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.7747202237783</v>
       </c>
       <c r="H41" t="n">
         <v>279.3132495495361</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>68.66493745130344</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>212.0583497802358</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6496841845384</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>30.46640673246437</v>
       </c>
     </row>
     <row r="42">
@@ -3906,7 +3906,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>49.71331480122365</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>15.89194317638263</v>
       </c>
       <c r="S43" t="n">
-        <v>57.60313519127735</v>
+        <v>156.5440010023451</v>
       </c>
       <c r="T43" t="n">
         <v>237.9909010247135</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>82.77617174288974</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3988,13 +3988,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.7747202237783</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>279.3132495495361</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.6496841845384</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>69.16615469789778</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4191,7 +4191,7 @@
         <v>237.9909010247135</v>
       </c>
       <c r="U46" t="n">
-        <v>178.4045247576099</v>
+        <v>277.3453905686778</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4203,7 +4203,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>125.1384748160865</v>
       </c>
     </row>
   </sheetData>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>387.7684189170774</v>
+        <v>157.2403783903284</v>
       </c>
       <c r="C2" t="n">
-        <v>99.48318118750379</v>
+        <v>134.3800524440326</v>
       </c>
       <c r="D2" t="n">
-        <v>80.23096441290814</v>
+        <v>115.1278356694369</v>
       </c>
       <c r="E2" t="n">
-        <v>58.29442860116974</v>
+        <v>93.19129985769854</v>
       </c>
       <c r="F2" t="n">
-        <v>37.21065083097404</v>
+        <v>72.10752208750284</v>
       </c>
       <c r="G2" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K2" t="n">
-        <v>36.91199246082673</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L2" t="n">
-        <v>36.91199246082673</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M2" t="n">
-        <v>493.6978991635576</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N2" t="n">
-        <v>493.6978991635576</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="O2" t="n">
-        <v>815.1719019525202</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="P2" t="n">
         <v>1271.957808655251</v>
@@ -4357,25 +4357,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T2" t="n">
-        <v>1624.67405208597</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U2" t="n">
-        <v>1624.67405208597</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V2" t="n">
-        <v>1624.67405208597</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.67405208597</v>
+        <v>1344.840979214824</v>
       </c>
       <c r="X2" t="n">
-        <v>1212.954053253717</v>
+        <v>933.1209803825714</v>
       </c>
       <c r="Y2" t="n">
-        <v>807.6167832086074</v>
+        <v>527.7837103374617</v>
       </c>
     </row>
     <row r="3">
@@ -4391,40 +4391,40 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F3" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H3" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I3" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J3" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="K3" t="n">
-        <v>36.91199246082673</v>
+        <v>475.2419029331441</v>
       </c>
       <c r="L3" t="n">
-        <v>36.91199246082673</v>
+        <v>475.2419029331441</v>
       </c>
       <c r="M3" t="n">
-        <v>36.91199246082673</v>
+        <v>932.027809635875</v>
       </c>
       <c r="N3" t="n">
-        <v>475.2419029331443</v>
+        <v>932.027809635875</v>
       </c>
       <c r="O3" t="n">
-        <v>932.0278096358751</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P3" t="n">
         <v>1388.813716338606</v>
@@ -4439,7 +4439,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U3" t="n">
         <v>1437.627243819906</v>
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>592.3425662998591</v>
+        <v>308.5423349459903</v>
       </c>
       <c r="C4" t="n">
-        <v>592.3425662998591</v>
+        <v>308.5423349459903</v>
       </c>
       <c r="D4" t="n">
-        <v>592.3425662998591</v>
+        <v>308.5423349459903</v>
       </c>
       <c r="E4" t="n">
-        <v>592.3425662998591</v>
+        <v>308.5423349459903</v>
       </c>
       <c r="F4" t="n">
-        <v>420.4807920744195</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="G4" t="n">
-        <v>280.4768292123964</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="H4" t="n">
         <v>136.6805607205508</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K4" t="n">
-        <v>263.4395936666639</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L4" t="n">
-        <v>618.1289149610848</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M4" t="n">
-        <v>695.0806413228745</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N4" t="n">
-        <v>1072.57215219891</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O4" t="n">
-        <v>1428.000280878673</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P4" t="n">
         <v>1718.599492800575</v>
@@ -4512,28 +4512,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R4" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S4" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T4" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U4" t="n">
-        <v>1565.415174541641</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="V4" t="n">
-        <v>1283.70370714967</v>
+        <v>823.1906985818782</v>
       </c>
       <c r="W4" t="n">
-        <v>1008.851303322183</v>
+        <v>551.1062315001852</v>
       </c>
       <c r="X4" t="n">
-        <v>1008.851303322183</v>
+        <v>308.5423349459903</v>
       </c>
       <c r="Y4" t="n">
-        <v>782.5085350119248</v>
+        <v>308.5423349459903</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>824.2522897001688</v>
+        <v>1463.325787119906</v>
       </c>
       <c r="C5" t="n">
-        <v>397.351559713469</v>
+        <v>1036.425057133206</v>
       </c>
       <c r="D5" t="n">
-        <v>378.0993429388733</v>
+        <v>1017.17284035861</v>
       </c>
       <c r="E5" t="n">
-        <v>356.162807127135</v>
+        <v>995.236304546872</v>
       </c>
       <c r="F5" t="n">
-        <v>335.0790293569393</v>
+        <v>774.0163046538721</v>
       </c>
       <c r="G5" t="n">
-        <v>334.7803709867919</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J5" t="n">
         <v>399.5154512777223</v>
@@ -4582,7 +4582,7 @@
         <v>399.5154512777223</v>
       </c>
       <c r="O5" t="n">
-        <v>815.1719019525202</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="P5" t="n">
         <v>1271.957808655251</v>
@@ -4603,16 +4603,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V5" t="n">
-        <v>1845.599623041337</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="W5" t="n">
-        <v>1845.599623041337</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="X5" t="n">
-        <v>1649.437924036808</v>
+        <v>1480.430613375737</v>
       </c>
       <c r="Y5" t="n">
-        <v>1244.100653991699</v>
+        <v>1479.133747371032</v>
       </c>
     </row>
     <row r="6">
@@ -4628,43 +4628,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F6" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I6" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J6" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K6" t="n">
-        <v>765.3953884431487</v>
+        <v>393.2225928484407</v>
       </c>
       <c r="L6" t="n">
-        <v>850.0084995511719</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="M6" t="n">
-        <v>850.0084995511719</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="N6" t="n">
-        <v>850.0084995511719</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="O6" t="n">
-        <v>1306.794406253903</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="P6" t="n">
-        <v>1763.580312956633</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q6" t="n">
         <v>1763.580312956633</v>
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>686.1708390747528</v>
+        <v>469.1457362734651</v>
       </c>
       <c r="C7" t="n">
-        <v>514.1982759536688</v>
+        <v>469.1457362734651</v>
       </c>
       <c r="D7" t="n">
-        <v>514.1982759536688</v>
+        <v>469.1457362734651</v>
       </c>
       <c r="E7" t="n">
-        <v>514.1982759536688</v>
+        <v>302.9375304263186</v>
       </c>
       <c r="F7" t="n">
-        <v>342.3365017282292</v>
+        <v>302.9375304263186</v>
       </c>
       <c r="G7" t="n">
-        <v>280.4768292123964</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="H7" t="n">
         <v>136.6805607205508</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K7" t="n">
-        <v>94.40332068498475</v>
+        <v>239.8047369801043</v>
       </c>
       <c r="L7" t="n">
-        <v>303.8948463526237</v>
+        <v>594.4940582745251</v>
       </c>
       <c r="M7" t="n">
-        <v>695.0806413228745</v>
+        <v>985.6798532447758</v>
       </c>
       <c r="N7" t="n">
-        <v>1072.57215219891</v>
+        <v>1363.171364120812</v>
       </c>
       <c r="O7" t="n">
-        <v>1428.000280878673</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="P7" t="n">
         <v>1718.599492800575</v>
@@ -4752,25 +4752,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T7" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U7" t="n">
-        <v>1675.464575560472</v>
+        <v>1565.415174541641</v>
       </c>
       <c r="V7" t="n">
-        <v>1393.7531081685</v>
+        <v>1283.70370714967</v>
       </c>
       <c r="W7" t="n">
-        <v>1118.900704341013</v>
+        <v>1008.851303322183</v>
       </c>
       <c r="X7" t="n">
-        <v>876.3368077868184</v>
+        <v>766.287406767988</v>
       </c>
       <c r="Y7" t="n">
-        <v>876.3368077868184</v>
+        <v>539.9446384577301</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1495.52233691143</v>
+        <v>1195.849226997886</v>
       </c>
       <c r="C8" t="n">
-        <v>1472.662010965134</v>
+        <v>1172.98890105159</v>
       </c>
       <c r="D8" t="n">
-        <v>1453.409794190538</v>
+        <v>1153.736684276994</v>
       </c>
       <c r="E8" t="n">
-        <v>1164.243615207943</v>
+        <v>795.1000824240679</v>
       </c>
       <c r="F8" t="n">
-        <v>739.1194333973433</v>
+        <v>774.0163046538721</v>
       </c>
       <c r="G8" t="n">
-        <v>334.7803709867919</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K8" t="n">
-        <v>475.2419029331443</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L8" t="n">
-        <v>475.2419029331443</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M8" t="n">
-        <v>475.2419029331443</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N8" t="n">
-        <v>932.0278096358751</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O8" t="n">
-        <v>1388.813716338606</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P8" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R8" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S8" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T8" t="n">
-        <v>1520.30675795911</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U8" t="n">
-        <v>1520.30675795911</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="V8" t="n">
-        <v>1520.30675795911</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="W8" t="n">
-        <v>1520.30675795911</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="X8" t="n">
-        <v>1512.627163167261</v>
+        <v>1616.994457294121</v>
       </c>
       <c r="Y8" t="n">
-        <v>1511.330297162556</v>
+        <v>1211.657187249012</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C9" t="n">
-        <v>486.5295800097868</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E9" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J9" t="n">
-        <v>316.0561247023297</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="K9" t="n">
-        <v>772.8420314050604</v>
+        <v>501.1445421254694</v>
       </c>
       <c r="L9" t="n">
-        <v>932.0278096358751</v>
+        <v>957.9304488282003</v>
       </c>
       <c r="M9" t="n">
-        <v>932.0278096358751</v>
+        <v>957.9304488282003</v>
       </c>
       <c r="N9" t="n">
-        <v>1388.813716338606</v>
+        <v>957.9304488282003</v>
       </c>
       <c r="O9" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P9" t="n">
-        <v>1388.813716338606</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R9" t="n">
         <v>1845.599623041337</v>
@@ -4913,7 +4913,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U9" t="n">
         <v>1437.627243819906</v>
@@ -4922,13 +4922,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1120.093114985063</v>
+        <v>876.528278233494</v>
       </c>
       <c r="C10" t="n">
-        <v>948.1205518639796</v>
+        <v>704.55571511241</v>
       </c>
       <c r="D10" t="n">
-        <v>784.8037789907503</v>
+        <v>541.2389422391807</v>
       </c>
       <c r="E10" t="n">
-        <v>618.5955731436038</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="F10" t="n">
-        <v>446.7337989181643</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G10" t="n">
-        <v>280.4768292123964</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K10" t="n">
         <v>76.20565529896515</v>
@@ -4986,28 +4986,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S10" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T10" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U10" t="n">
-        <v>1518.376561228814</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V10" t="n">
-        <v>1518.376561228814</v>
+        <v>1810.453315637499</v>
       </c>
       <c r="W10" t="n">
-        <v>1518.376561228814</v>
+        <v>1535.600911810012</v>
       </c>
       <c r="X10" t="n">
-        <v>1518.376561228814</v>
+        <v>1293.037015255818</v>
       </c>
       <c r="Y10" t="n">
-        <v>1310.259083697129</v>
+        <v>1066.69424694556</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1020.413988704697</v>
+        <v>1160.519681262695</v>
       </c>
       <c r="C11" t="n">
-        <v>593.5132587179971</v>
+        <v>1160.519681262695</v>
       </c>
       <c r="D11" t="n">
-        <v>170.2206379029974</v>
+        <v>745.0235278175512</v>
       </c>
       <c r="E11" t="n">
-        <v>36.91199246082673</v>
+        <v>319.0465879654087</v>
       </c>
       <c r="F11" t="n">
-        <v>36.91199246082673</v>
+        <v>319.0465879654087</v>
       </c>
       <c r="G11" t="n">
-        <v>36.91199246082673</v>
+        <v>319.0465879654087</v>
       </c>
       <c r="H11" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I11" t="n">
-        <v>60.75968921084744</v>
+        <v>60.75968921084745</v>
       </c>
       <c r="J11" t="n">
-        <v>295.684704398263</v>
+        <v>295.6847043982632</v>
       </c>
       <c r="K11" t="n">
-        <v>451.8137845276815</v>
+        <v>451.8137845276817</v>
       </c>
       <c r="L11" t="n">
-        <v>651.5022506077928</v>
+        <v>651.502250607793</v>
       </c>
       <c r="M11" t="n">
-        <v>878.8404285548269</v>
+        <v>878.8404285548271</v>
       </c>
       <c r="N11" t="n">
         <v>1110.606919757352</v>
@@ -5068,25 +5068,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S11" t="n">
-        <v>1845.599623041337</v>
+        <v>1776.241100363253</v>
       </c>
       <c r="T11" t="n">
-        <v>1845.599623041337</v>
+        <v>1776.241100363253</v>
       </c>
       <c r="U11" t="n">
-        <v>1845.599623041337</v>
+        <v>1518.009096136446</v>
       </c>
       <c r="V11" t="n">
-        <v>1845.599623041337</v>
+        <v>1160.519681262695</v>
       </c>
       <c r="W11" t="n">
-        <v>1845.599623041337</v>
+        <v>1160.519681262695</v>
       </c>
       <c r="X11" t="n">
-        <v>1845.599623041337</v>
+        <v>1160.519681262695</v>
       </c>
       <c r="Y11" t="n">
-        <v>1440.262352996227</v>
+        <v>1160.519681262695</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>595.2746850936832</v>
+        <v>595.2746850936833</v>
       </c>
       <c r="C12" t="n">
-        <v>477.7687816111879</v>
+        <v>477.768781611188</v>
       </c>
       <c r="D12" t="n">
         <v>373.928823126473</v>
       </c>
       <c r="E12" t="n">
-        <v>269.2268893994102</v>
+        <v>269.2268893994103</v>
       </c>
       <c r="F12" t="n">
         <v>175.5810590823144</v>
       </c>
       <c r="G12" t="n">
-        <v>82.34928813731777</v>
+        <v>82.34928813731779</v>
       </c>
       <c r="H12" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I12" t="n">
-        <v>48.63947744135684</v>
+        <v>72.09678328576868</v>
       </c>
       <c r="J12" t="n">
-        <v>104.3500721007239</v>
+        <v>127.8073779451358</v>
       </c>
       <c r="K12" t="n">
-        <v>212.2685108443455</v>
+        <v>235.7258166887573</v>
       </c>
       <c r="L12" t="n">
-        <v>364.9055826353863</v>
+        <v>388.3628884797981</v>
       </c>
       <c r="M12" t="n">
-        <v>546.1713370679586</v>
+        <v>569.6286429123704</v>
       </c>
       <c r="N12" t="n">
-        <v>797.7269824772533</v>
+        <v>758.0333672904957</v>
       </c>
       <c r="O12" t="n">
-        <v>1254.512889179984</v>
+        <v>926.7761655261064</v>
       </c>
       <c r="P12" t="n">
-        <v>1711.298795882715</v>
+        <v>1383.562072228837</v>
       </c>
       <c r="Q12" t="n">
-        <v>1791.618852869063</v>
+        <v>1686.163352584157</v>
       </c>
       <c r="R12" t="n">
         <v>1818.203200394854</v>
@@ -5162,10 +5162,10 @@
         <v>1027.371929393791</v>
       </c>
       <c r="X12" t="n">
-        <v>863.8945831604535</v>
+        <v>863.8945831604536</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2016945137459</v>
+        <v>724.201694513746</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>913.8436326716132</v>
+        <v>436.4388603102574</v>
       </c>
       <c r="C13" t="n">
-        <v>741.8710695505292</v>
+        <v>264.4662971891735</v>
       </c>
       <c r="D13" t="n">
-        <v>578.5542966772999</v>
+        <v>264.4662971891735</v>
       </c>
       <c r="E13" t="n">
-        <v>412.3460908301535</v>
+        <v>264.4662971891735</v>
       </c>
       <c r="F13" t="n">
-        <v>240.4843166047139</v>
+        <v>264.4662971891735</v>
       </c>
       <c r="G13" t="n">
-        <v>74.9164847882239</v>
+        <v>98.89846537268349</v>
       </c>
       <c r="H13" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I13" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J13" t="n">
-        <v>64.23408403814891</v>
+        <v>142.1558006863698</v>
       </c>
       <c r="K13" t="n">
-        <v>121.9510697544594</v>
+        <v>199.8727864026803</v>
       </c>
       <c r="L13" t="n">
-        <v>389.4149004215594</v>
+        <v>450.6277149330141</v>
       </c>
       <c r="M13" t="n">
-        <v>846.2008071242902</v>
+        <v>907.413621635745</v>
       </c>
       <c r="N13" t="n">
-        <v>1302.986713827021</v>
+        <v>990.2305092537138</v>
       </c>
       <c r="O13" t="n">
-        <v>1753.882961197993</v>
+        <v>1441.126756624686</v>
       </c>
       <c r="P13" t="n">
-        <v>1813.415436714058</v>
+        <v>1813.415436714059</v>
       </c>
       <c r="Q13" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R13" t="n">
-        <v>1845.599623041337</v>
+        <v>1829.547155186405</v>
       </c>
       <c r="S13" t="n">
-        <v>1845.599623041337</v>
+        <v>1671.421901648682</v>
       </c>
       <c r="T13" t="n">
-        <v>1605.204773521424</v>
+        <v>1431.02705212877</v>
       </c>
       <c r="U13" t="n">
-        <v>1605.204773521424</v>
+        <v>1150.880192968489</v>
       </c>
       <c r="V13" t="n">
-        <v>1605.204773521424</v>
+        <v>869.168725576518</v>
       </c>
       <c r="W13" t="n">
-        <v>1330.352369693937</v>
+        <v>869.168725576518</v>
       </c>
       <c r="X13" t="n">
-        <v>1330.352369693937</v>
+        <v>626.6048290223231</v>
       </c>
       <c r="Y13" t="n">
-        <v>1104.009601383679</v>
+        <v>626.6048290223231</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>656.5418450438033</v>
+        <v>601.6944166121397</v>
       </c>
       <c r="C14" t="n">
-        <v>229.6411150571034</v>
+        <v>601.6944166121397</v>
       </c>
       <c r="D14" t="n">
-        <v>36.91199246082673</v>
+        <v>601.6944166121397</v>
       </c>
       <c r="E14" t="n">
-        <v>36.91199246082673</v>
+        <v>175.7174767599972</v>
       </c>
       <c r="F14" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G14" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H14" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I14" t="n">
-        <v>60.75968921084744</v>
+        <v>60.75968921084745</v>
       </c>
       <c r="J14" t="n">
-        <v>295.684704398263</v>
+        <v>295.6847043982632</v>
       </c>
       <c r="K14" t="n">
-        <v>451.8137845276815</v>
+        <v>451.8137845276817</v>
       </c>
       <c r="L14" t="n">
-        <v>651.5022506077928</v>
+        <v>651.502250607793</v>
       </c>
       <c r="M14" t="n">
-        <v>878.8404285548269</v>
+        <v>878.8404285548271</v>
       </c>
       <c r="N14" t="n">
         <v>1110.606919757352</v>
@@ -5305,25 +5305,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S14" t="n">
-        <v>1845.599623041337</v>
+        <v>1776.241100363253</v>
       </c>
       <c r="T14" t="n">
-        <v>1845.599623041337</v>
+        <v>1776.241100363253</v>
       </c>
       <c r="U14" t="n">
-        <v>1845.599623041337</v>
+        <v>1776.241100363253</v>
       </c>
       <c r="V14" t="n">
-        <v>1488.110208167586</v>
+        <v>1418.751685489502</v>
       </c>
       <c r="W14" t="n">
-        <v>1488.110208167586</v>
+        <v>1418.751685489502</v>
       </c>
       <c r="X14" t="n">
-        <v>1076.390209335333</v>
+        <v>1007.031686657249</v>
       </c>
       <c r="Y14" t="n">
-        <v>1076.390209335333</v>
+        <v>601.6944166121397</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>595.2746850936832</v>
+        <v>595.2746850936833</v>
       </c>
       <c r="C15" t="n">
-        <v>477.7687816111879</v>
+        <v>477.768781611188</v>
       </c>
       <c r="D15" t="n">
         <v>373.928823126473</v>
       </c>
       <c r="E15" t="n">
-        <v>269.2268893994102</v>
+        <v>269.2268893994103</v>
       </c>
       <c r="F15" t="n">
         <v>175.5810590823144</v>
       </c>
       <c r="G15" t="n">
-        <v>82.34928813731777</v>
+        <v>82.34928813731779</v>
       </c>
       <c r="H15" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I15" t="n">
         <v>72.09678328576868</v>
@@ -5360,25 +5360,25 @@
         <v>127.8073779451358</v>
       </c>
       <c r="K15" t="n">
-        <v>235.7258166887573</v>
+        <v>584.5932846478667</v>
       </c>
       <c r="L15" t="n">
-        <v>692.5117233914882</v>
+        <v>737.2303564389075</v>
       </c>
       <c r="M15" t="n">
-        <v>873.7774778240605</v>
+        <v>918.4961108714798</v>
       </c>
       <c r="N15" t="n">
-        <v>1062.182202202186</v>
+        <v>1106.900835249605</v>
       </c>
       <c r="O15" t="n">
-        <v>1518.968108904916</v>
+        <v>1275.643633485216</v>
       </c>
       <c r="P15" t="n">
-        <v>1651.25745785234</v>
+        <v>1711.298795882715</v>
       </c>
       <c r="Q15" t="n">
-        <v>1731.577514838688</v>
+        <v>1791.618852869063</v>
       </c>
       <c r="R15" t="n">
         <v>1818.203200394854</v>
@@ -5399,10 +5399,10 @@
         <v>1027.371929393791</v>
       </c>
       <c r="X15" t="n">
-        <v>863.8945831604535</v>
+        <v>863.8945831604536</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2016945137459</v>
+        <v>724.201694513746</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1092.552658973558</v>
+        <v>208.8845555819107</v>
       </c>
       <c r="C16" t="n">
-        <v>920.5800958524741</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D16" t="n">
-        <v>757.2633229792448</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E16" t="n">
-        <v>591.0551171320983</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F16" t="n">
-        <v>419.1933429066588</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G16" t="n">
-        <v>253.6255110901688</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H16" t="n">
-        <v>115.9563049229939</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I16" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J16" t="n">
-        <v>64.23408403814891</v>
+        <v>142.1558006863698</v>
       </c>
       <c r="K16" t="n">
-        <v>121.9510697544594</v>
+        <v>447.1553955167024</v>
       </c>
       <c r="L16" t="n">
-        <v>577.0575259264231</v>
+        <v>902.261851688666</v>
       </c>
       <c r="M16" t="n">
-        <v>660.5836296409863</v>
+        <v>1359.047758391397</v>
       </c>
       <c r="N16" t="n">
-        <v>990.2305092537135</v>
+        <v>1680.689038130225</v>
       </c>
       <c r="O16" t="n">
-        <v>1441.126756624686</v>
+        <v>1753.882961197994</v>
       </c>
       <c r="P16" t="n">
-        <v>1813.415436714058</v>
+        <v>1813.415436714059</v>
       </c>
       <c r="Q16" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R16" t="n">
-        <v>1829.547155186405</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S16" t="n">
-        <v>1749.456245515794</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T16" t="n">
-        <v>1509.061395995882</v>
+        <v>1704.667919538168</v>
       </c>
       <c r="U16" t="n">
-        <v>1509.061395995882</v>
+        <v>1424.521060377887</v>
       </c>
       <c r="V16" t="n">
-        <v>1509.061395995882</v>
+        <v>1142.809592985916</v>
       </c>
       <c r="W16" t="n">
-        <v>1509.061395995882</v>
+        <v>867.9571891584293</v>
       </c>
       <c r="X16" t="n">
-        <v>1509.061395995882</v>
+        <v>625.3932926042344</v>
       </c>
       <c r="Y16" t="n">
-        <v>1282.718627685624</v>
+        <v>399.0505242939764</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>549.9279782496726</v>
+        <v>1313.082283114669</v>
       </c>
       <c r="C17" t="n">
-        <v>549.9279782496726</v>
+        <v>886.181553127969</v>
       </c>
       <c r="D17" t="n">
-        <v>549.9279782496726</v>
+        <v>462.8889323129692</v>
       </c>
       <c r="E17" t="n">
-        <v>549.9279782496726</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F17" t="n">
-        <v>124.8037964390728</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G17" t="n">
-        <v>124.8037964390728</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H17" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I17" t="n">
-        <v>60.75968921084744</v>
+        <v>60.75968921084745</v>
       </c>
       <c r="J17" t="n">
-        <v>159.431903385155</v>
+        <v>295.6847043982632</v>
       </c>
       <c r="K17" t="n">
-        <v>315.5609835145735</v>
+        <v>451.8137845276817</v>
       </c>
       <c r="L17" t="n">
-        <v>515.2494495946848</v>
+        <v>651.502250607793</v>
       </c>
       <c r="M17" t="n">
-        <v>742.587627541719</v>
+        <v>878.8404285548271</v>
       </c>
       <c r="N17" t="n">
-        <v>974.3541187442441</v>
+        <v>1110.606919757352</v>
       </c>
       <c r="O17" t="n">
-        <v>1191.037664310144</v>
+        <v>1327.290465323252</v>
       </c>
       <c r="P17" t="n">
-        <v>1370.365644660056</v>
+        <v>1506.618445673164</v>
       </c>
       <c r="Q17" t="n">
         <v>1633.458219297001</v>
@@ -5542,25 +5542,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S17" t="n">
-        <v>1776.241100363252</v>
+        <v>1776.241100363253</v>
       </c>
       <c r="T17" t="n">
-        <v>1562.040747049883</v>
+        <v>1571.314287341475</v>
       </c>
       <c r="U17" t="n">
-        <v>1303.808742823076</v>
+        <v>1313.082283114669</v>
       </c>
       <c r="V17" t="n">
-        <v>946.3193279493257</v>
+        <v>1313.082283114669</v>
       </c>
       <c r="W17" t="n">
-        <v>549.9279782496726</v>
+        <v>1313.082283114669</v>
       </c>
       <c r="X17" t="n">
-        <v>549.9279782496726</v>
+        <v>1313.082283114669</v>
       </c>
       <c r="Y17" t="n">
-        <v>549.9279782496726</v>
+        <v>1313.082283114669</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>595.2746850936832</v>
+        <v>595.2746850936833</v>
       </c>
       <c r="C18" t="n">
-        <v>477.7687816111879</v>
+        <v>477.768781611188</v>
       </c>
       <c r="D18" t="n">
         <v>373.928823126473</v>
       </c>
       <c r="E18" t="n">
-        <v>269.2268893994102</v>
+        <v>269.2268893994103</v>
       </c>
       <c r="F18" t="n">
         <v>175.5810590823144</v>
       </c>
       <c r="G18" t="n">
-        <v>82.34928813731777</v>
+        <v>82.34928813731779</v>
       </c>
       <c r="H18" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I18" t="n">
-        <v>72.09678328576868</v>
+        <v>48.63947744135685</v>
       </c>
       <c r="J18" t="n">
-        <v>127.8073779451358</v>
+        <v>104.3500721007239</v>
       </c>
       <c r="K18" t="n">
-        <v>235.7258166887573</v>
+        <v>511.4932483815586</v>
       </c>
       <c r="L18" t="n">
-        <v>388.3628884797981</v>
+        <v>664.1303201725995</v>
       </c>
       <c r="M18" t="n">
-        <v>569.6286429123704</v>
+        <v>845.3960746051717</v>
       </c>
       <c r="N18" t="n">
-        <v>928.3452986983912</v>
+        <v>1033.800798983297</v>
       </c>
       <c r="O18" t="n">
-        <v>1097.088096934002</v>
+        <v>1202.543597218908</v>
       </c>
       <c r="P18" t="n">
-        <v>1229.377445881426</v>
+        <v>1334.832946166332</v>
       </c>
       <c r="Q18" t="n">
-        <v>1686.163352584157</v>
+        <v>1791.618852869063</v>
       </c>
       <c r="R18" t="n">
         <v>1818.203200394854</v>
@@ -5636,10 +5636,10 @@
         <v>1027.371929393791</v>
       </c>
       <c r="X18" t="n">
-        <v>863.8945831604535</v>
+        <v>863.8945831604536</v>
       </c>
       <c r="Y18" t="n">
-        <v>724.2016945137459</v>
+        <v>724.201694513746</v>
       </c>
     </row>
     <row r="19">
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>748.7183216270345</v>
+        <v>380.7463298073503</v>
       </c>
       <c r="C19" t="n">
-        <v>748.7183216270345</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="D19" t="n">
-        <v>585.4015487538052</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="E19" t="n">
-        <v>419.1933429066588</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="F19" t="n">
-        <v>419.1933429066588</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G19" t="n">
-        <v>253.6255110901688</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H19" t="n">
-        <v>115.9563049229939</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I19" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J19" t="n">
-        <v>64.23408403814891</v>
+        <v>142.1558006863698</v>
       </c>
       <c r="K19" t="n">
-        <v>121.9510697544594</v>
+        <v>447.1553955167024</v>
       </c>
       <c r="L19" t="n">
-        <v>577.0575259264231</v>
+        <v>902.261851688666</v>
       </c>
       <c r="M19" t="n">
-        <v>660.5836296409863</v>
+        <v>1133.742448561049</v>
       </c>
       <c r="N19" t="n">
-        <v>990.2305092537135</v>
+        <v>1216.559336179018</v>
       </c>
       <c r="O19" t="n">
-        <v>1441.126756624686</v>
+        <v>1289.753259246787</v>
       </c>
       <c r="P19" t="n">
-        <v>1813.415436714058</v>
+        <v>1662.04193933616</v>
       </c>
       <c r="Q19" t="n">
         <v>1845.599623041337</v>
@@ -5703,22 +5703,22 @@
         <v>1829.547155186405</v>
       </c>
       <c r="T19" t="n">
-        <v>1738.012058112753</v>
+        <v>1601.677289936121</v>
       </c>
       <c r="U19" t="n">
-        <v>1738.012058112753</v>
+        <v>1321.53043077584</v>
       </c>
       <c r="V19" t="n">
-        <v>1456.300590720782</v>
+        <v>1039.818963383869</v>
       </c>
       <c r="W19" t="n">
-        <v>1181.448186893295</v>
+        <v>1039.818963383869</v>
       </c>
       <c r="X19" t="n">
-        <v>938.8842903391001</v>
+        <v>797.255066829674</v>
       </c>
       <c r="Y19" t="n">
-        <v>938.8842903391001</v>
+        <v>570.912298519416</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1488.110208167586</v>
+        <v>319.0465879654087</v>
       </c>
       <c r="C20" t="n">
-        <v>1061.209478180886</v>
+        <v>319.0465879654087</v>
       </c>
       <c r="D20" t="n">
-        <v>1061.209478180886</v>
+        <v>319.0465879654087</v>
       </c>
       <c r="E20" t="n">
-        <v>635.2325383287438</v>
+        <v>319.0465879654087</v>
       </c>
       <c r="F20" t="n">
-        <v>210.108356518144</v>
+        <v>319.0465879654087</v>
       </c>
       <c r="G20" t="n">
-        <v>210.108356518144</v>
+        <v>319.0465879654087</v>
       </c>
       <c r="H20" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I20" t="n">
-        <v>60.75968921084744</v>
+        <v>60.75968921084745</v>
       </c>
       <c r="J20" t="n">
-        <v>159.431903385155</v>
+        <v>295.6847043982632</v>
       </c>
       <c r="K20" t="n">
-        <v>315.5609835145735</v>
+        <v>451.8137845276817</v>
       </c>
       <c r="L20" t="n">
-        <v>515.2494495946848</v>
+        <v>651.502250607793</v>
       </c>
       <c r="M20" t="n">
-        <v>742.587627541719</v>
+        <v>878.8404285548271</v>
       </c>
       <c r="N20" t="n">
-        <v>974.3541187442441</v>
+        <v>1110.606919757352</v>
       </c>
       <c r="O20" t="n">
-        <v>1191.037664310144</v>
+        <v>1327.290465323252</v>
       </c>
       <c r="P20" t="n">
         <v>1506.618445673164</v>
@@ -5779,25 +5779,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S20" t="n">
-        <v>1845.599623041337</v>
+        <v>1776.241100363253</v>
       </c>
       <c r="T20" t="n">
-        <v>1845.599623041337</v>
+        <v>1562.040747049883</v>
       </c>
       <c r="U20" t="n">
-        <v>1845.599623041337</v>
+        <v>1303.808742823076</v>
       </c>
       <c r="V20" t="n">
-        <v>1488.110208167586</v>
+        <v>946.319327949326</v>
       </c>
       <c r="W20" t="n">
-        <v>1488.110208167586</v>
+        <v>549.9279782496728</v>
       </c>
       <c r="X20" t="n">
-        <v>1488.110208167586</v>
+        <v>319.0465879654087</v>
       </c>
       <c r="Y20" t="n">
-        <v>1488.110208167586</v>
+        <v>319.0465879654087</v>
       </c>
     </row>
     <row r="21">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>595.2746850936832</v>
+        <v>595.2746850936833</v>
       </c>
       <c r="C21" t="n">
-        <v>477.7687816111879</v>
+        <v>477.768781611188</v>
       </c>
       <c r="D21" t="n">
         <v>373.928823126473</v>
       </c>
       <c r="E21" t="n">
-        <v>269.2268893994102</v>
+        <v>269.2268893994103</v>
       </c>
       <c r="F21" t="n">
         <v>175.5810590823144</v>
       </c>
       <c r="G21" t="n">
-        <v>82.34928813731777</v>
+        <v>82.34928813731779</v>
       </c>
       <c r="H21" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I21" t="n">
         <v>72.09678328576868</v>
       </c>
       <c r="J21" t="n">
-        <v>127.8073779451358</v>
+        <v>419.9098704147269</v>
       </c>
       <c r="K21" t="n">
-        <v>235.7258166887573</v>
+        <v>527.8283091583485</v>
       </c>
       <c r="L21" t="n">
-        <v>388.3628884797981</v>
+        <v>680.4653809493893</v>
       </c>
       <c r="M21" t="n">
-        <v>845.1487951825289</v>
+        <v>861.7311353819616</v>
       </c>
       <c r="N21" t="n">
-        <v>1301.93470188526</v>
+        <v>1050.135859760087</v>
       </c>
       <c r="O21" t="n">
-        <v>1470.67750012087</v>
+        <v>1218.878657995698</v>
       </c>
       <c r="P21" t="n">
-        <v>1602.966849068295</v>
+        <v>1351.168006943122</v>
       </c>
       <c r="Q21" t="n">
-        <v>1686.163352584157</v>
+        <v>1791.618852869063</v>
       </c>
       <c r="R21" t="n">
         <v>1818.203200394854</v>
@@ -5873,10 +5873,10 @@
         <v>1027.371929393791</v>
       </c>
       <c r="X21" t="n">
-        <v>863.8945831604535</v>
+        <v>863.8945831604536</v>
       </c>
       <c r="Y21" t="n">
-        <v>724.2016945137459</v>
+        <v>724.201694513746</v>
       </c>
     </row>
     <row r="22">
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>349.8162590850793</v>
+        <v>109.4214095651668</v>
       </c>
       <c r="C22" t="n">
-        <v>287.8180791484334</v>
+        <v>109.4214095651668</v>
       </c>
       <c r="D22" t="n">
-        <v>287.8180791484334</v>
+        <v>109.4214095651668</v>
       </c>
       <c r="E22" t="n">
-        <v>287.8180791484334</v>
+        <v>109.4214095651668</v>
       </c>
       <c r="F22" t="n">
-        <v>115.9563049229939</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G22" t="n">
-        <v>115.9563049229939</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H22" t="n">
-        <v>115.9563049229939</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I22" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J22" t="n">
-        <v>64.23408403814891</v>
+        <v>142.1558006863698</v>
       </c>
       <c r="K22" t="n">
-        <v>121.9510697544594</v>
+        <v>447.1553955167024</v>
       </c>
       <c r="L22" t="n">
-        <v>577.0575259264231</v>
+        <v>902.261851688666</v>
       </c>
       <c r="M22" t="n">
-        <v>846.2008071242902</v>
+        <v>1359.047758391397</v>
       </c>
       <c r="N22" t="n">
-        <v>1302.986713827021</v>
+        <v>1441.864646009366</v>
       </c>
       <c r="O22" t="n">
-        <v>1753.882961197993</v>
+        <v>1515.058569077135</v>
       </c>
       <c r="P22" t="n">
-        <v>1813.415436714058</v>
+        <v>1662.04193933616</v>
       </c>
       <c r="Q22" t="n">
         <v>1845.599623041337</v>
@@ -5940,22 +5940,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T22" t="n">
-        <v>1845.599623041337</v>
+        <v>1605.204773521424</v>
       </c>
       <c r="U22" t="n">
-        <v>1565.452763881056</v>
+        <v>1325.057914361144</v>
       </c>
       <c r="V22" t="n">
-        <v>1283.741296489085</v>
+        <v>1043.346446969172</v>
       </c>
       <c r="W22" t="n">
-        <v>1008.888892661598</v>
+        <v>768.4940431416853</v>
       </c>
       <c r="X22" t="n">
-        <v>766.3249961074029</v>
+        <v>525.9301465874904</v>
       </c>
       <c r="Y22" t="n">
-        <v>539.9822277971449</v>
+        <v>299.5873782772325</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>886.0902736956838</v>
+        <v>795.4382955458667</v>
       </c>
       <c r="C23" t="n">
-        <v>886.0902736956838</v>
+        <v>795.4382955458667</v>
       </c>
       <c r="D23" t="n">
-        <v>886.0902736956838</v>
+        <v>795.4382955458667</v>
       </c>
       <c r="E23" t="n">
-        <v>886.0902736956838</v>
+        <v>795.4382955458667</v>
       </c>
       <c r="F23" t="n">
-        <v>460.966091885084</v>
+        <v>743.1006873896659</v>
       </c>
       <c r="G23" t="n">
-        <v>58.16334418429786</v>
+        <v>340.2979396888798</v>
       </c>
       <c r="H23" t="n">
         <v>58.16334418429786</v>
@@ -6007,34 +6007,34 @@
         <v>1604.018234741241</v>
       </c>
       <c r="P23" t="n">
-        <v>2077.337124483985</v>
+        <v>2229.575782761736</v>
       </c>
       <c r="Q23" t="n">
-        <v>2696.025805470557</v>
+        <v>2848.264463748308</v>
       </c>
       <c r="R23" t="n">
         <v>2908.167209214893</v>
       </c>
       <c r="S23" t="n">
-        <v>2908.167209214893</v>
+        <v>2838.808686536809</v>
       </c>
       <c r="T23" t="n">
-        <v>2715.260311373257</v>
+        <v>2624.608333223439</v>
       </c>
       <c r="U23" t="n">
-        <v>2457.02830714645</v>
+        <v>2366.376328996633</v>
       </c>
       <c r="V23" t="n">
-        <v>2099.538892272699</v>
+        <v>2008.886914122882</v>
       </c>
       <c r="W23" t="n">
-        <v>1703.147542573046</v>
+        <v>1612.495564423229</v>
       </c>
       <c r="X23" t="n">
-        <v>1291.427543740793</v>
+        <v>1200.775565590976</v>
       </c>
       <c r="Y23" t="n">
-        <v>886.0902736956838</v>
+        <v>795.4382955458667</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>69.89082916482796</v>
       </c>
       <c r="J24" t="n">
-        <v>314.6269663089231</v>
+        <v>209.171466024017</v>
       </c>
       <c r="K24" t="n">
-        <v>422.5454050525447</v>
+        <v>317.0899047676386</v>
       </c>
       <c r="L24" t="n">
-        <v>575.1824768435855</v>
+        <v>469.7269765586794</v>
       </c>
       <c r="M24" t="n">
-        <v>756.4482312761578</v>
+        <v>650.9927309912517</v>
       </c>
       <c r="N24" t="n">
-        <v>944.8529556542831</v>
+        <v>839.397455369377</v>
       </c>
       <c r="O24" t="n">
-        <v>1113.595753889894</v>
+        <v>1008.140253604988</v>
       </c>
       <c r="P24" t="n">
-        <v>1245.885102837318</v>
+        <v>1140.429602552412</v>
       </c>
       <c r="Q24" t="n">
-        <v>1812.870204592534</v>
+        <v>1707.414704307628</v>
       </c>
       <c r="R24" t="n">
         <v>1839.454552118325</v>
@@ -6138,7 +6138,7 @@
         <v>324.4519582791689</v>
       </c>
       <c r="G25" t="n">
-        <v>274.8768628136399</v>
+        <v>158.8841264626789</v>
       </c>
       <c r="H25" t="n">
         <v>137.207656646465</v>
@@ -6147,13 +6147,13 @@
         <v>58.16334418429786</v>
       </c>
       <c r="J25" t="n">
-        <v>163.407152409841</v>
+        <v>163.4071524098408</v>
       </c>
       <c r="K25" t="n">
-        <v>468.4067472401739</v>
+        <v>468.4067472401734</v>
       </c>
       <c r="L25" t="n">
-        <v>923.5132034121375</v>
+        <v>923.5132034121368</v>
       </c>
       <c r="M25" t="n">
         <v>1420.574787589522</v>
@@ -6162,7 +6162,7 @@
         <v>1901.424598049371</v>
       </c>
       <c r="O25" t="n">
-        <v>2352.320845420344</v>
+        <v>2352.320845420343</v>
       </c>
       <c r="P25" t="n">
         <v>2724.609525509716</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1336.16519583374</v>
+        <v>1397.901633099612</v>
       </c>
       <c r="C26" t="n">
-        <v>909.2644658470401</v>
+        <v>971.0009031129123</v>
       </c>
       <c r="D26" t="n">
-        <v>909.2644658470401</v>
+        <v>547.7082822979125</v>
       </c>
       <c r="E26" t="n">
-        <v>483.2875259948977</v>
+        <v>547.7082822979125</v>
       </c>
       <c r="F26" t="n">
-        <v>58.16334418429787</v>
+        <v>122.5841004873128</v>
       </c>
       <c r="G26" t="n">
-        <v>58.16334418429787</v>
+        <v>58.16334418429786</v>
       </c>
       <c r="H26" t="n">
-        <v>58.16334418429787</v>
+        <v>58.16334418429786</v>
       </c>
       <c r="I26" t="n">
         <v>82.01104093431857</v>
@@ -6229,7 +6229,7 @@
         <v>572.4124738162523</v>
       </c>
       <c r="K26" t="n">
-        <v>1022.532463338503</v>
+        <v>1022.532463338502</v>
       </c>
       <c r="L26" t="n">
         <v>1222.220929418614</v>
@@ -6238,7 +6238,7 @@
         <v>1449.559107365648</v>
       </c>
       <c r="N26" t="n">
-        <v>1681.325598568174</v>
+        <v>1681.325598568173</v>
       </c>
       <c r="O26" t="n">
         <v>1898.009144134073</v>
@@ -6259,19 +6259,19 @@
         <v>2838.808686536809</v>
       </c>
       <c r="U26" t="n">
-        <v>2838.808686536809</v>
+        <v>2580.576682310002</v>
       </c>
       <c r="V26" t="n">
-        <v>2481.319271663058</v>
+        <v>2223.087267436252</v>
       </c>
       <c r="W26" t="n">
-        <v>2161.35083017038</v>
+        <v>2223.087267436252</v>
       </c>
       <c r="X26" t="n">
-        <v>2161.35083017038</v>
+        <v>2223.087267436252</v>
       </c>
       <c r="Y26" t="n">
-        <v>1756.01356012527</v>
+        <v>1817.749997391142</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>103.6006398607889</v>
       </c>
       <c r="H27" t="n">
-        <v>58.16334418429787</v>
+        <v>58.16334418429786</v>
       </c>
       <c r="I27" t="n">
-        <v>93.34813500923983</v>
+        <v>69.89082916482796</v>
       </c>
       <c r="J27" t="n">
-        <v>441.161222138198</v>
+        <v>314.6269663089231</v>
       </c>
       <c r="K27" t="n">
-        <v>803.7549495365067</v>
+        <v>422.5454050525447</v>
       </c>
       <c r="L27" t="n">
-        <v>956.3920213275476</v>
+        <v>575.1824768435855</v>
       </c>
       <c r="M27" t="n">
-        <v>1137.65777576012</v>
+        <v>756.4482312761578</v>
       </c>
       <c r="N27" t="n">
-        <v>1326.062500138245</v>
+        <v>944.8529556542831</v>
       </c>
       <c r="O27" t="n">
-        <v>1494.805298373856</v>
+        <v>1113.595753889894</v>
       </c>
       <c r="P27" t="n">
-        <v>1627.09464732128</v>
+        <v>1245.885102837318</v>
       </c>
       <c r="Q27" t="n">
-        <v>1707.414704307628</v>
+        <v>1812.870204592534</v>
       </c>
       <c r="R27" t="n">
         <v>1839.454552118325</v>
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>997.8112743460692</v>
+        <v>1113.804010697029</v>
       </c>
       <c r="C28" t="n">
         <v>941.8314475759453</v>
@@ -6381,16 +6381,16 @@
         <v>137.207656646465</v>
       </c>
       <c r="I28" t="n">
-        <v>58.16334418429787</v>
+        <v>58.16334418429786</v>
       </c>
       <c r="J28" t="n">
-        <v>163.407152409841</v>
+        <v>163.4071524098406</v>
       </c>
       <c r="K28" t="n">
-        <v>468.4067472401736</v>
+        <v>468.4067472401732</v>
       </c>
       <c r="L28" t="n">
-        <v>923.5132034121373</v>
+        <v>923.5132034121368</v>
       </c>
       <c r="M28" t="n">
         <v>1420.574787589522</v>
@@ -6399,7 +6399,7 @@
         <v>1901.424598049371</v>
       </c>
       <c r="O28" t="n">
-        <v>2352.320845420344</v>
+        <v>2352.320845420343</v>
       </c>
       <c r="P28" t="n">
         <v>2724.609525509716</v>
@@ -6408,28 +6408,28 @@
         <v>2908.167209214893</v>
       </c>
       <c r="R28" t="n">
-        <v>2892.114741359961</v>
+        <v>2908.167209214893</v>
       </c>
       <c r="S28" t="n">
-        <v>2733.989487822239</v>
+        <v>2750.04195567717</v>
       </c>
       <c r="T28" t="n">
-        <v>2493.594638302327</v>
+        <v>2509.647106157257</v>
       </c>
       <c r="U28" t="n">
-        <v>2213.447779142046</v>
+        <v>2329.440515493006</v>
       </c>
       <c r="V28" t="n">
-        <v>1931.736311750075</v>
+        <v>2047.729048101035</v>
       </c>
       <c r="W28" t="n">
-        <v>1656.883907922588</v>
+        <v>1772.876644273548</v>
       </c>
       <c r="X28" t="n">
-        <v>1414.320011368393</v>
+        <v>1530.312747719353</v>
       </c>
       <c r="Y28" t="n">
-        <v>1187.977243058135</v>
+        <v>1303.969979409095</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2041.592412153322</v>
+        <v>1595.978357228508</v>
       </c>
       <c r="C29" t="n">
-        <v>1614.691682166622</v>
+        <v>1169.077627241808</v>
       </c>
       <c r="D29" t="n">
-        <v>1191.399061351622</v>
+        <v>1169.077627241808</v>
       </c>
       <c r="E29" t="n">
-        <v>765.4221214994797</v>
+        <v>743.1006873896659</v>
       </c>
       <c r="F29" t="n">
-        <v>340.2979396888799</v>
+        <v>743.1006873896659</v>
       </c>
       <c r="G29" t="n">
-        <v>340.2979396888799</v>
+        <v>340.2979396888798</v>
       </c>
       <c r="H29" t="n">
-        <v>58.16334418429787</v>
+        <v>58.16334418429786</v>
       </c>
       <c r="I29" t="n">
         <v>82.01104093431857</v>
@@ -6481,10 +6481,10 @@
         <v>1604.018234741241</v>
       </c>
       <c r="P29" t="n">
-        <v>2229.575782761737</v>
+        <v>2077.337124483985</v>
       </c>
       <c r="Q29" t="n">
-        <v>2848.264463748309</v>
+        <v>2696.025805470557</v>
       </c>
       <c r="R29" t="n">
         <v>2908.167209214893</v>
@@ -6496,19 +6496,19 @@
         <v>2624.608333223439</v>
       </c>
       <c r="U29" t="n">
-        <v>2366.376328996633</v>
+        <v>2397.706976973271</v>
       </c>
       <c r="V29" t="n">
-        <v>2041.592412153322</v>
+        <v>2397.706976973271</v>
       </c>
       <c r="W29" t="n">
-        <v>2041.592412153322</v>
+        <v>2001.315627273618</v>
       </c>
       <c r="X29" t="n">
-        <v>2041.592412153322</v>
+        <v>2001.315627273618</v>
       </c>
       <c r="Y29" t="n">
-        <v>2041.592412153322</v>
+        <v>1595.978357228508</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>103.6006398607889</v>
       </c>
       <c r="H30" t="n">
-        <v>58.16334418429787</v>
+        <v>58.16334418429786</v>
       </c>
       <c r="I30" t="n">
-        <v>69.89082916482798</v>
+        <v>69.89082916482796</v>
       </c>
       <c r="J30" t="n">
-        <v>314.6269663089231</v>
+        <v>417.7039162937862</v>
       </c>
       <c r="K30" t="n">
-        <v>422.5454050525447</v>
+        <v>525.6223550374077</v>
       </c>
       <c r="L30" t="n">
-        <v>575.1824768435855</v>
+        <v>678.2594268284486</v>
       </c>
       <c r="M30" t="n">
-        <v>756.4482312761578</v>
+        <v>859.5251812610209</v>
       </c>
       <c r="N30" t="n">
-        <v>944.8529556542831</v>
+        <v>1047.929905639146</v>
       </c>
       <c r="O30" t="n">
-        <v>1113.595753889894</v>
+        <v>1216.672703874757</v>
       </c>
       <c r="P30" t="n">
-        <v>1245.885102837318</v>
+        <v>1348.962052822181</v>
       </c>
       <c r="Q30" t="n">
         <v>1812.870204592534</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1034.759698234862</v>
+        <v>1013.863742201</v>
       </c>
       <c r="C31" t="n">
-        <v>862.7871351137782</v>
+        <v>841.8911790799161</v>
       </c>
       <c r="D31" t="n">
-        <v>699.4703622405489</v>
+        <v>678.5744062066868</v>
       </c>
       <c r="E31" t="n">
-        <v>533.2621563934024</v>
+        <v>512.3662003595404</v>
       </c>
       <c r="F31" t="n">
-        <v>361.4003821679628</v>
+        <v>340.5044261341008</v>
       </c>
       <c r="G31" t="n">
-        <v>195.8325503514728</v>
+        <v>174.9365943176108</v>
       </c>
       <c r="H31" t="n">
-        <v>58.16334418429787</v>
+        <v>137.207656646465</v>
       </c>
       <c r="I31" t="n">
-        <v>58.16334418429787</v>
+        <v>58.16334418429786</v>
       </c>
       <c r="J31" t="n">
-        <v>163.4071524098409</v>
+        <v>163.4071524098408</v>
       </c>
       <c r="K31" t="n">
-        <v>468.4067472401734</v>
+        <v>468.4067472401732</v>
       </c>
       <c r="L31" t="n">
-        <v>923.513203412137</v>
+        <v>923.5132034121368</v>
       </c>
       <c r="M31" t="n">
         <v>1420.574787589522</v>
@@ -6636,7 +6636,7 @@
         <v>1901.424598049371</v>
       </c>
       <c r="O31" t="n">
-        <v>2352.320845420344</v>
+        <v>2352.320845420343</v>
       </c>
       <c r="P31" t="n">
         <v>2724.609525509716</v>
@@ -6648,25 +6648,25 @@
         <v>2908.167209214893</v>
       </c>
       <c r="S31" t="n">
-        <v>2750.041955677171</v>
+        <v>2750.04195567717</v>
       </c>
       <c r="T31" t="n">
-        <v>2509.647106157258</v>
+        <v>2509.647106157257</v>
       </c>
       <c r="U31" t="n">
-        <v>2229.500246996978</v>
+        <v>2229.500246996977</v>
       </c>
       <c r="V31" t="n">
-        <v>1947.788779605007</v>
+        <v>1947.788779605006</v>
       </c>
       <c r="W31" t="n">
-        <v>1672.93637577752</v>
+        <v>1672.936375777519</v>
       </c>
       <c r="X31" t="n">
-        <v>1430.372479223325</v>
+        <v>1430.372479223324</v>
       </c>
       <c r="Y31" t="n">
-        <v>1224.925666946928</v>
+        <v>1204.029710913066</v>
       </c>
     </row>
     <row r="32">
@@ -6685,16 +6685,16 @@
         <v>909.2644658470401</v>
       </c>
       <c r="E32" t="n">
-        <v>483.2875259948977</v>
+        <v>483.2875259948976</v>
       </c>
       <c r="F32" t="n">
-        <v>58.16334418429787</v>
+        <v>58.16334418429786</v>
       </c>
       <c r="G32" t="n">
-        <v>58.16334418429787</v>
+        <v>58.16334418429786</v>
       </c>
       <c r="H32" t="n">
-        <v>58.16334418429787</v>
+        <v>58.16334418429786</v>
       </c>
       <c r="I32" t="n">
         <v>82.01104093431857</v>
@@ -6703,22 +6703,22 @@
         <v>572.4124738162523</v>
       </c>
       <c r="K32" t="n">
-        <v>728.5415539456708</v>
+        <v>1292.183858096938</v>
       </c>
       <c r="L32" t="n">
-        <v>928.2300200257821</v>
+        <v>1491.87232417705</v>
       </c>
       <c r="M32" t="n">
-        <v>1155.568197972816</v>
+        <v>1719.210502124084</v>
       </c>
       <c r="N32" t="n">
-        <v>1387.334689175341</v>
+        <v>1950.976993326609</v>
       </c>
       <c r="O32" t="n">
-        <v>1604.018234741241</v>
+        <v>2389.858051496808</v>
       </c>
       <c r="P32" t="n">
-        <v>2323.789619021927</v>
+        <v>2569.18603184672</v>
       </c>
       <c r="Q32" t="n">
         <v>2696.025805470557</v>
@@ -6733,10 +6733,10 @@
         <v>2838.808686536809</v>
       </c>
       <c r="U32" t="n">
-        <v>2580.576682310003</v>
+        <v>2838.808686536809</v>
       </c>
       <c r="V32" t="n">
-        <v>2223.087267436252</v>
+        <v>2575.697530639923</v>
       </c>
       <c r="W32" t="n">
         <v>2179.30618094027</v>
@@ -6773,31 +6773,31 @@
         <v>103.6006398607889</v>
       </c>
       <c r="H33" t="n">
-        <v>58.16334418429787</v>
+        <v>58.16334418429786</v>
       </c>
       <c r="I33" t="n">
-        <v>69.89082916482798</v>
+        <v>69.89082916482796</v>
       </c>
       <c r="J33" t="n">
-        <v>314.6269663089231</v>
+        <v>417.7039162937862</v>
       </c>
       <c r="K33" t="n">
-        <v>422.5454050525447</v>
+        <v>525.6223550374077</v>
       </c>
       <c r="L33" t="n">
-        <v>575.1824768435855</v>
+        <v>678.2594268284486</v>
       </c>
       <c r="M33" t="n">
-        <v>756.4482312761578</v>
+        <v>859.5251812610209</v>
       </c>
       <c r="N33" t="n">
-        <v>944.8529556542831</v>
+        <v>1047.929905639146</v>
       </c>
       <c r="O33" t="n">
-        <v>1113.595753889894</v>
+        <v>1216.672703874757</v>
       </c>
       <c r="P33" t="n">
-        <v>1245.885102837318</v>
+        <v>1348.962052822181</v>
       </c>
       <c r="Q33" t="n">
         <v>1812.870204592534</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>997.8112743460692</v>
+        <v>1013.863742201</v>
       </c>
       <c r="C34" t="n">
-        <v>825.8387112249852</v>
+        <v>941.8314475759453</v>
       </c>
       <c r="D34" t="n">
-        <v>662.5219383517559</v>
+        <v>778.514674702716</v>
       </c>
       <c r="E34" t="n">
-        <v>496.3137325046094</v>
+        <v>612.3064688555695</v>
       </c>
       <c r="F34" t="n">
-        <v>324.4519582791698</v>
+        <v>440.4446946301299</v>
       </c>
       <c r="G34" t="n">
         <v>274.8768628136399</v>
@@ -6855,16 +6855,16 @@
         <v>137.207656646465</v>
       </c>
       <c r="I34" t="n">
-        <v>58.16334418429787</v>
+        <v>58.16334418429786</v>
       </c>
       <c r="J34" t="n">
-        <v>163.407152409841</v>
+        <v>163.4071524098406</v>
       </c>
       <c r="K34" t="n">
-        <v>468.4067472401736</v>
+        <v>468.4067472401732</v>
       </c>
       <c r="L34" t="n">
-        <v>923.5132034121373</v>
+        <v>923.5132034121368</v>
       </c>
       <c r="M34" t="n">
         <v>1420.574787589522</v>
@@ -6873,7 +6873,7 @@
         <v>1901.424598049371</v>
       </c>
       <c r="O34" t="n">
-        <v>2352.320845420344</v>
+        <v>2352.320845420343</v>
       </c>
       <c r="P34" t="n">
         <v>2724.609525509716</v>
@@ -6882,28 +6882,28 @@
         <v>2908.167209214893</v>
       </c>
       <c r="R34" t="n">
-        <v>2892.114741359961</v>
+        <v>2908.167209214893</v>
       </c>
       <c r="S34" t="n">
-        <v>2733.989487822239</v>
+        <v>2750.04195567717</v>
       </c>
       <c r="T34" t="n">
-        <v>2493.594638302327</v>
+        <v>2509.647106157257</v>
       </c>
       <c r="U34" t="n">
-        <v>2213.447779142046</v>
+        <v>2229.500246996977</v>
       </c>
       <c r="V34" t="n">
-        <v>1931.736311750075</v>
+        <v>1947.788779605006</v>
       </c>
       <c r="W34" t="n">
-        <v>1656.883907922588</v>
+        <v>1672.936375777519</v>
       </c>
       <c r="X34" t="n">
-        <v>1414.320011368393</v>
+        <v>1430.372479223324</v>
       </c>
       <c r="Y34" t="n">
-        <v>1187.977243058135</v>
+        <v>1204.029710913066</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2041.592412153322</v>
+        <v>1759.45781664874</v>
       </c>
       <c r="C35" t="n">
-        <v>1614.691682166622</v>
+        <v>1332.55708666204</v>
       </c>
       <c r="D35" t="n">
-        <v>1191.399061351622</v>
+        <v>909.2644658470401</v>
       </c>
       <c r="E35" t="n">
-        <v>765.4221214994797</v>
+        <v>483.2875259948976</v>
       </c>
       <c r="F35" t="n">
-        <v>340.2979396888799</v>
+        <v>58.16334418429786</v>
       </c>
       <c r="G35" t="n">
-        <v>340.2979396888799</v>
+        <v>58.16334418429786</v>
       </c>
       <c r="H35" t="n">
-        <v>58.16334418429787</v>
+        <v>58.16334418429786</v>
       </c>
       <c r="I35" t="n">
         <v>82.01104093431857</v>
       </c>
       <c r="J35" t="n">
-        <v>572.4124738162523</v>
+        <v>180.6832551086261</v>
       </c>
       <c r="K35" t="n">
-        <v>728.5415539456708</v>
+        <v>336.8123352380446</v>
       </c>
       <c r="L35" t="n">
-        <v>928.2300200257821</v>
+        <v>1056.583719518731</v>
       </c>
       <c r="M35" t="n">
-        <v>1155.568197972816</v>
+        <v>1283.921897465765</v>
       </c>
       <c r="N35" t="n">
-        <v>1387.334689175341</v>
+        <v>1515.68838866829</v>
       </c>
       <c r="O35" t="n">
-        <v>1604.018234741241</v>
+        <v>2235.459772948976</v>
       </c>
       <c r="P35" t="n">
-        <v>2077.337124483985</v>
+        <v>2414.787753298888</v>
       </c>
       <c r="Q35" t="n">
         <v>2696.025805470557</v>
@@ -6964,25 +6964,25 @@
         <v>2908.167209214893</v>
       </c>
       <c r="S35" t="n">
-        <v>2908.167209214893</v>
+        <v>2838.808686536809</v>
       </c>
       <c r="T35" t="n">
-        <v>2908.167209214893</v>
+        <v>2838.808686536809</v>
       </c>
       <c r="U35" t="n">
-        <v>2908.167209214893</v>
+        <v>2591.026179772522</v>
       </c>
       <c r="V35" t="n">
-        <v>2908.167209214893</v>
+        <v>2591.026179772522</v>
       </c>
       <c r="W35" t="n">
-        <v>2908.167209214893</v>
+        <v>2591.026179772522</v>
       </c>
       <c r="X35" t="n">
-        <v>2866.778046489961</v>
+        <v>2179.30618094027</v>
       </c>
       <c r="Y35" t="n">
-        <v>2461.440776444852</v>
+        <v>2179.30618094027</v>
       </c>
     </row>
     <row r="36">
@@ -7010,13 +7010,13 @@
         <v>103.6006398607889</v>
       </c>
       <c r="H36" t="n">
-        <v>58.16334418429787</v>
+        <v>58.16334418429786</v>
       </c>
       <c r="I36" t="n">
-        <v>93.34813500923983</v>
+        <v>69.89082916482796</v>
       </c>
       <c r="J36" t="n">
-        <v>149.0587296686069</v>
+        <v>314.6269663089231</v>
       </c>
       <c r="K36" t="n">
         <v>422.5454050525447</v>
@@ -7092,16 +7092,16 @@
         <v>137.207656646465</v>
       </c>
       <c r="I37" t="n">
-        <v>58.16334418429787</v>
+        <v>58.16334418429786</v>
       </c>
       <c r="J37" t="n">
-        <v>163.407152409841</v>
+        <v>163.4071524098406</v>
       </c>
       <c r="K37" t="n">
-        <v>468.4067472401736</v>
+        <v>468.4067472401732</v>
       </c>
       <c r="L37" t="n">
-        <v>923.5132034121373</v>
+        <v>923.5132034121368</v>
       </c>
       <c r="M37" t="n">
         <v>1420.574787589522</v>
@@ -7110,7 +7110,7 @@
         <v>1901.424598049371</v>
       </c>
       <c r="O37" t="n">
-        <v>2352.320845420344</v>
+        <v>2352.320845420343</v>
       </c>
       <c r="P37" t="n">
         <v>2724.609525509716</v>
@@ -7119,13 +7119,13 @@
         <v>2908.167209214893</v>
       </c>
       <c r="R37" t="n">
-        <v>2892.114741359961</v>
+        <v>2908.167209214893</v>
       </c>
       <c r="S37" t="n">
-        <v>2849.982224173199</v>
+        <v>2750.04195567717</v>
       </c>
       <c r="T37" t="n">
-        <v>2609.587374653287</v>
+        <v>2509.647106157257</v>
       </c>
       <c r="U37" t="n">
         <v>2329.440515493006</v>
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1267.870653086043</v>
+        <v>1759.45781664874</v>
       </c>
       <c r="C38" t="n">
-        <v>886.0902736956838</v>
+        <v>1332.55708666204</v>
       </c>
       <c r="D38" t="n">
-        <v>886.0902736956838</v>
+        <v>909.2644658470401</v>
       </c>
       <c r="E38" t="n">
-        <v>886.0902736956838</v>
+        <v>483.2875259948976</v>
       </c>
       <c r="F38" t="n">
-        <v>460.966091885084</v>
+        <v>58.16334418429786</v>
       </c>
       <c r="G38" t="n">
-        <v>58.16334418429787</v>
+        <v>58.16334418429786</v>
       </c>
       <c r="H38" t="n">
-        <v>58.16334418429787</v>
+        <v>58.16334418429786</v>
       </c>
       <c r="I38" t="n">
         <v>82.01104093431857</v>
       </c>
       <c r="J38" t="n">
-        <v>572.4124738162523</v>
+        <v>180.6832551086261</v>
       </c>
       <c r="K38" t="n">
-        <v>728.5415539456708</v>
+        <v>900.4546393893121</v>
       </c>
       <c r="L38" t="n">
-        <v>928.2300200257821</v>
+        <v>1620.226023669998</v>
       </c>
       <c r="M38" t="n">
-        <v>1155.568197972816</v>
+        <v>1847.564201617032</v>
       </c>
       <c r="N38" t="n">
-        <v>1387.334689175341</v>
+        <v>2079.330692819557</v>
       </c>
       <c r="O38" t="n">
-        <v>1604.018234741241</v>
+        <v>2296.014238385457</v>
       </c>
       <c r="P38" t="n">
-        <v>2077.337124483985</v>
+        <v>2721.424690124471</v>
       </c>
       <c r="Q38" t="n">
-        <v>2696.025805470557</v>
+        <v>2848.264463748308</v>
       </c>
       <c r="R38" t="n">
         <v>2908.167209214893</v>
@@ -7204,22 +7204,22 @@
         <v>2838.808686536809</v>
       </c>
       <c r="T38" t="n">
-        <v>2838.808686536809</v>
+        <v>2624.608333223439</v>
       </c>
       <c r="U38" t="n">
-        <v>2838.808686536809</v>
+        <v>2591.026179772522</v>
       </c>
       <c r="V38" t="n">
-        <v>2481.319271663058</v>
+        <v>2591.026179772522</v>
       </c>
       <c r="W38" t="n">
-        <v>2084.927921963405</v>
+        <v>2591.026179772522</v>
       </c>
       <c r="X38" t="n">
-        <v>1673.207923131153</v>
+        <v>2179.30618094027</v>
       </c>
       <c r="Y38" t="n">
-        <v>1267.870653086043</v>
+        <v>2179.30618094027</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>103.6006398607889</v>
       </c>
       <c r="H39" t="n">
-        <v>58.16334418429787</v>
+        <v>58.16334418429786</v>
       </c>
       <c r="I39" t="n">
-        <v>69.89082916482798</v>
+        <v>69.89082916482796</v>
       </c>
       <c r="J39" t="n">
         <v>314.6269663089231</v>
@@ -7329,16 +7329,16 @@
         <v>137.207656646465</v>
       </c>
       <c r="I40" t="n">
-        <v>58.16334418429787</v>
+        <v>58.16334418429786</v>
       </c>
       <c r="J40" t="n">
-        <v>163.407152409841</v>
+        <v>163.4071524098406</v>
       </c>
       <c r="K40" t="n">
-        <v>468.4067472401734</v>
+        <v>468.4067472401732</v>
       </c>
       <c r="L40" t="n">
-        <v>923.513203412137</v>
+        <v>923.5132034121368</v>
       </c>
       <c r="M40" t="n">
         <v>1420.574787589522</v>
@@ -7359,7 +7359,7 @@
         <v>2908.167209214893</v>
       </c>
       <c r="S40" t="n">
-        <v>2849.982224173199</v>
+        <v>2750.04195567717</v>
       </c>
       <c r="T40" t="n">
         <v>2609.587374653287</v>
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1671.261576046001</v>
+        <v>1170.001417376366</v>
       </c>
       <c r="C41" t="n">
-        <v>1244.360846059301</v>
+        <v>743.1006873896659</v>
       </c>
       <c r="D41" t="n">
-        <v>1191.399061351622</v>
+        <v>743.1006873896659</v>
       </c>
       <c r="E41" t="n">
-        <v>765.4221214994797</v>
+        <v>743.1006873896659</v>
       </c>
       <c r="F41" t="n">
-        <v>340.2979396888799</v>
+        <v>743.1006873896659</v>
       </c>
       <c r="G41" t="n">
-        <v>340.2979396888799</v>
+        <v>340.2979396888798</v>
       </c>
       <c r="H41" t="n">
-        <v>58.16334418429787</v>
+        <v>58.16334418429786</v>
       </c>
       <c r="I41" t="n">
         <v>82.01104093431857</v>
@@ -7414,49 +7414,49 @@
         <v>572.4124738162523</v>
       </c>
       <c r="K41" t="n">
-        <v>1022.532463338503</v>
+        <v>728.5415539456708</v>
       </c>
       <c r="L41" t="n">
-        <v>1222.220929418614</v>
+        <v>928.2300200257821</v>
       </c>
       <c r="M41" t="n">
-        <v>1449.559107365648</v>
+        <v>1155.568197972816</v>
       </c>
       <c r="N41" t="n">
-        <v>1681.325598568174</v>
+        <v>1387.334689175341</v>
       </c>
       <c r="O41" t="n">
-        <v>1898.009144134073</v>
+        <v>1604.018234741241</v>
       </c>
       <c r="P41" t="n">
-        <v>2077.337124483985</v>
+        <v>2229.575782761736</v>
       </c>
       <c r="Q41" t="n">
-        <v>2696.025805470557</v>
+        <v>2848.264463748308</v>
       </c>
       <c r="R41" t="n">
         <v>2908.167209214893</v>
       </c>
       <c r="S41" t="n">
-        <v>2908.167209214893</v>
+        <v>2838.808686536809</v>
       </c>
       <c r="T41" t="n">
-        <v>2908.167209214893</v>
+        <v>2624.608333223439</v>
       </c>
       <c r="U41" t="n">
-        <v>2908.167209214893</v>
+        <v>2366.376328996633</v>
       </c>
       <c r="V41" t="n">
-        <v>2908.167209214893</v>
+        <v>2008.886914122882</v>
       </c>
       <c r="W41" t="n">
-        <v>2908.167209214893</v>
+        <v>1612.495564423229</v>
       </c>
       <c r="X41" t="n">
-        <v>2496.447210382641</v>
+        <v>1200.775565590976</v>
       </c>
       <c r="Y41" t="n">
-        <v>2091.109940337531</v>
+        <v>1170.001417376366</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>103.6006398607889</v>
       </c>
       <c r="H42" t="n">
-        <v>58.16334418429787</v>
+        <v>58.16334418429786</v>
       </c>
       <c r="I42" t="n">
-        <v>69.89082916482798</v>
+        <v>69.89082916482796</v>
       </c>
       <c r="J42" t="n">
         <v>314.6269663089231</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1113.804010697029</v>
+        <v>997.8112743460683</v>
       </c>
       <c r="C43" t="n">
-        <v>941.8314475759453</v>
+        <v>825.8387112249843</v>
       </c>
       <c r="D43" t="n">
-        <v>778.514674702716</v>
+        <v>662.521938351755</v>
       </c>
       <c r="E43" t="n">
         <v>612.3064688555695</v>
@@ -7566,16 +7566,16 @@
         <v>137.207656646465</v>
       </c>
       <c r="I43" t="n">
-        <v>58.16334418429787</v>
+        <v>58.16334418429786</v>
       </c>
       <c r="J43" t="n">
-        <v>163.407152409841</v>
+        <v>163.4071524098406</v>
       </c>
       <c r="K43" t="n">
-        <v>468.4067472401736</v>
+        <v>468.4067472401732</v>
       </c>
       <c r="L43" t="n">
-        <v>923.5132034121373</v>
+        <v>923.5132034121368</v>
       </c>
       <c r="M43" t="n">
         <v>1420.574787589522</v>
@@ -7584,7 +7584,7 @@
         <v>1901.424598049371</v>
       </c>
       <c r="O43" t="n">
-        <v>2352.320845420344</v>
+        <v>2352.320845420343</v>
       </c>
       <c r="P43" t="n">
         <v>2724.609525509716</v>
@@ -7593,28 +7593,28 @@
         <v>2908.167209214893</v>
       </c>
       <c r="R43" t="n">
-        <v>2908.167209214893</v>
+        <v>2892.114741359961</v>
       </c>
       <c r="S43" t="n">
-        <v>2849.982224173199</v>
+        <v>2733.989487822239</v>
       </c>
       <c r="T43" t="n">
-        <v>2609.587374653287</v>
+        <v>2493.594638302326</v>
       </c>
       <c r="U43" t="n">
-        <v>2329.440515493006</v>
+        <v>2213.447779142045</v>
       </c>
       <c r="V43" t="n">
-        <v>2047.729048101035</v>
+        <v>1931.736311750074</v>
       </c>
       <c r="W43" t="n">
-        <v>1772.876644273548</v>
+        <v>1656.883907922587</v>
       </c>
       <c r="X43" t="n">
-        <v>1530.312747719353</v>
+        <v>1414.320011368392</v>
       </c>
       <c r="Y43" t="n">
-        <v>1303.969979409095</v>
+        <v>1187.977243058134</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1595.978357228508</v>
+        <v>1336.16519583374</v>
       </c>
       <c r="C44" t="n">
-        <v>1169.077627241808</v>
+        <v>909.2644658470401</v>
       </c>
       <c r="D44" t="n">
-        <v>1169.077627241808</v>
+        <v>909.2644658470401</v>
       </c>
       <c r="E44" t="n">
-        <v>743.1006873896661</v>
+        <v>483.2875259948976</v>
       </c>
       <c r="F44" t="n">
-        <v>743.1006873896661</v>
+        <v>58.16334418429786</v>
       </c>
       <c r="G44" t="n">
-        <v>340.2979396888799</v>
+        <v>58.16334418429786</v>
       </c>
       <c r="H44" t="n">
-        <v>58.16334418429787</v>
+        <v>58.16334418429786</v>
       </c>
       <c r="I44" t="n">
         <v>82.01104093431857</v>
@@ -7651,25 +7651,25 @@
         <v>572.4124738162523</v>
       </c>
       <c r="K44" t="n">
-        <v>728.5415539456708</v>
+        <v>1146.537110778414</v>
       </c>
       <c r="L44" t="n">
-        <v>928.2300200257821</v>
+        <v>1866.3084950591</v>
       </c>
       <c r="M44" t="n">
-        <v>1155.568197972816</v>
+        <v>2093.646673006134</v>
       </c>
       <c r="N44" t="n">
-        <v>1387.334689175341</v>
+        <v>2325.41316420866</v>
       </c>
       <c r="O44" t="n">
-        <v>1604.018234741241</v>
+        <v>2542.096709774559</v>
       </c>
       <c r="P44" t="n">
-        <v>2077.337124483985</v>
+        <v>2721.424690124471</v>
       </c>
       <c r="Q44" t="n">
-        <v>2696.025805470557</v>
+        <v>2848.264463748308</v>
       </c>
       <c r="R44" t="n">
         <v>2908.167209214893</v>
@@ -7681,19 +7681,19 @@
         <v>2838.808686536809</v>
       </c>
       <c r="U44" t="n">
-        <v>2838.808686536809</v>
+        <v>2580.576682310002</v>
       </c>
       <c r="V44" t="n">
-        <v>2481.319271663058</v>
+        <v>2223.087267436252</v>
       </c>
       <c r="W44" t="n">
-        <v>2084.927921963405</v>
+        <v>2153.222464711102</v>
       </c>
       <c r="X44" t="n">
-        <v>2084.927921963405</v>
+        <v>1741.50246587885</v>
       </c>
       <c r="Y44" t="n">
-        <v>1679.590651918296</v>
+        <v>1336.16519583374</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>103.6006398607889</v>
       </c>
       <c r="H45" t="n">
-        <v>58.16334418429787</v>
+        <v>58.16334418429786</v>
       </c>
       <c r="I45" t="n">
-        <v>69.89082916482798</v>
+        <v>93.3481350092398</v>
       </c>
       <c r="J45" t="n">
-        <v>314.6269663089231</v>
+        <v>441.161222138198</v>
       </c>
       <c r="K45" t="n">
-        <v>422.5454050525447</v>
+        <v>549.0796608818196</v>
       </c>
       <c r="L45" t="n">
-        <v>575.1824768435855</v>
+        <v>701.7167326728604</v>
       </c>
       <c r="M45" t="n">
-        <v>756.4482312761578</v>
+        <v>882.9824871054327</v>
       </c>
       <c r="N45" t="n">
-        <v>944.8529556542831</v>
+        <v>1071.387211483558</v>
       </c>
       <c r="O45" t="n">
-        <v>1113.595753889894</v>
+        <v>1240.130009719169</v>
       </c>
       <c r="P45" t="n">
-        <v>1245.885102837318</v>
+        <v>1372.419358666593</v>
       </c>
       <c r="Q45" t="n">
-        <v>1812.870204592534</v>
+        <v>1707.414704307628</v>
       </c>
       <c r="R45" t="n">
         <v>1839.454552118325</v>
@@ -7803,16 +7803,16 @@
         <v>137.207656646465</v>
       </c>
       <c r="I46" t="n">
-        <v>58.16334418429787</v>
+        <v>58.16334418429786</v>
       </c>
       <c r="J46" t="n">
-        <v>163.407152409841</v>
+        <v>163.4071524098408</v>
       </c>
       <c r="K46" t="n">
-        <v>468.4067472401736</v>
+        <v>468.4067472401734</v>
       </c>
       <c r="L46" t="n">
-        <v>923.5132034121373</v>
+        <v>923.513203412137</v>
       </c>
       <c r="M46" t="n">
         <v>1420.574787589522</v>
@@ -7821,7 +7821,7 @@
         <v>1901.424598049371</v>
       </c>
       <c r="O46" t="n">
-        <v>2352.320845420344</v>
+        <v>2352.320845420343</v>
       </c>
       <c r="P46" t="n">
         <v>2724.609525509716</v>
@@ -7833,22 +7833,22 @@
         <v>2908.167209214893</v>
       </c>
       <c r="S46" t="n">
-        <v>2750.041955677171</v>
+        <v>2750.04195567717</v>
       </c>
       <c r="T46" t="n">
-        <v>2509.647106157258</v>
+        <v>2509.647106157257</v>
       </c>
       <c r="U46" t="n">
-        <v>2329.440515493006</v>
+        <v>2229.500246996977</v>
       </c>
       <c r="V46" t="n">
-        <v>2047.729048101035</v>
+        <v>1947.788779605006</v>
       </c>
       <c r="W46" t="n">
-        <v>1772.876644273548</v>
+        <v>1672.936375777519</v>
       </c>
       <c r="X46" t="n">
-        <v>1530.312747719353</v>
+        <v>1430.372479223324</v>
       </c>
       <c r="Y46" t="n">
         <v>1303.969979409095</v>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>362.1121742943702</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705654</v>
+        <v>457.4303624918456</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8054,28 +8054,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>457.6348575812177</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N3" t="n">
-        <v>464.100513539115</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
         <v>484.5717954825564</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651628</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>484.1469440493127</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8145,7 +8145,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>100.3044564185461</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8230,10 +8230,10 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>457.2459600376382</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P5" t="n">
-        <v>498.9752675705654</v>
+        <v>457.4303624918456</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8291,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>483.7991395936675</v>
+        <v>100.3451612536475</v>
       </c>
       <c r="L6" t="n">
-        <v>107.9828757122328</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651628</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8373,13 +8373,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K7" t="n">
-        <v>20.964654452712</v>
+        <v>225.9068206338004</v>
       </c>
       <c r="L7" t="n">
-        <v>233.526361580185</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
         <v>417.7126065281028</v>
@@ -8391,7 +8391,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>315.9153581548562</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q7" t="n">
         <v>152.9025226039384</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>478.5220861203826</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
@@ -8464,19 +8464,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>457.1346235160602</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163582</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P8" t="n">
-        <v>498.9752675705654</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>483.7991395936675</v>
       </c>
       <c r="L9" t="n">
-        <v>183.3088020988909</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738758</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>375.55972550576</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q9" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,7 +8613,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K10" t="n">
-        <v>60.65522297608414</v>
+        <v>60.65522297608413</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>137.6290919324323</v>
+        <v>137.6290919324325</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8780,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>63.78880912239336</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>290.9526348152729</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>327.7743007629361</v>
+        <v>327.7743007629362</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>224.5264882514865</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,25 +8847,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>190.6527960467691</v>
+        <v>173.7751171207426</v>
       </c>
       <c r="M13" t="n">
         <v>377.0301040284522</v>
       </c>
       <c r="N13" t="n">
-        <v>377.7464839240021</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>137.6290919324323</v>
+        <v>137.6290919324325</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9008,10 +9008,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>352.3913817768781</v>
       </c>
       <c r="L15" t="n">
-        <v>307.2210453653434</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>290.9526348152728</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>306.4301145960353</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>60.64781619229726</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,25 +9084,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>377.0301040284522</v>
       </c>
       <c r="N16" t="n">
-        <v>249.3232242371298</v>
+        <v>241.2367597180394</v>
       </c>
       <c r="O16" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>137.6290919324325</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>137.6290919324321</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>302.2472096335486</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>172.0322539473692</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>380.2685350670533</v>
+        <v>380.2685350670534</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>149.4489829876969</v>
       </c>
       <c r="N19" t="n">
-        <v>249.3232242371298</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>137.6290919324325</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>137.629091932432</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9488,10 +9488,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>278.3031841112713</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>271.0921033581874</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.905501544963968</v>
+        <v>363.7684736763565</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>187.4920984679839</v>
+        <v>377.0301040284522</v>
       </c>
       <c r="N22" t="n">
-        <v>377.7464839240021</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>88.33423711410124</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9655,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>296.9605145382138</v>
+        <v>450.736937040993</v>
       </c>
       <c r="Q23" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>190.9348913987152</v>
+        <v>84.41418404022419</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>296.9605145382142</v>
+        <v>296.9605145382137</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>190.9348913987152</v>
       </c>
       <c r="K27" t="n">
-        <v>257.2477663178658</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517272</v>
+        <v>78.70880469517229</v>
       </c>
       <c r="K28" t="n">
         <v>249.7804132464869</v>
@@ -10129,13 +10129,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>450.7369370409934</v>
+        <v>296.9605145382138</v>
       </c>
       <c r="Q29" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>190.9348913987152</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>491.5808533018869</v>
+        <v>387.4627220040455</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10278,7 +10278,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>417.712606528103</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
@@ -10351,7 +10351,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>569.335660758856</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10363,13 +10363,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>224.4419319235348</v>
       </c>
       <c r="P32" t="n">
-        <v>545.9024282129029</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>247.8751644694884</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>190.9348913987152</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>491.5808533018869</v>
+        <v>387.4627220040455</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.70880469517272</v>
+        <v>78.70880469517229</v>
       </c>
       <c r="K34" t="n">
         <v>249.7804132464869</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>525.3362810106815</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,13 +10600,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>508.1695340553396</v>
       </c>
       <c r="P35" t="n">
-        <v>296.9605145382144</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>155.9578571190222</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>190.9348913987152</v>
       </c>
       <c r="K36" t="n">
-        <v>167.2406430710264</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517273</v>
+        <v>78.70880469517229</v>
       </c>
       <c r="K37" t="n">
         <v>249.7804132464869</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>569.335660758856</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>525.3362810106815</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10840,13 +10840,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>296.9605145382144</v>
+        <v>248.5681529182848</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517229</v>
       </c>
       <c r="K40" t="n">
         <v>249.7804132464869</v>
@@ -11062,7 +11062,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>296.9605145382142</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11077,13 +11077,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>450.736937040993</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517273</v>
+        <v>78.70880469517229</v>
       </c>
       <c r="K43" t="n">
         <v>249.7804132464869</v>
@@ -11299,10 +11299,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>422.217734174488</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>525.3362810106814</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11314,13 +11314,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>296.9605145382144</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>190.9348913987152</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>257.2477663178657</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517272</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
         <v>249.7804132464869</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>7.718502696156861</v>
       </c>
       <c r="E11" t="n">
-        <v>289.741611465872</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -23275,7 +23275,7 @@
         <v>398.7747202237783</v>
       </c>
       <c r="H11" t="n">
-        <v>279.3132495495361</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>68.66493745130344</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>212.0583497802358</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6496841845384</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -23326,7 +23326,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>98.66806670137996</v>
+        <v>74.92590592276497</v>
       </c>
       <c r="I13" t="n">
         <v>78.25386933754547</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>15.89194317638263</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>156.5440010023451</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3453905686778</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>228.2578632365358</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>283.455510536315</v>
       </c>
       <c r="G14" t="n">
         <v>398.7747202237783</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>68.66493745130344</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>212.0583497802358</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9121534983251</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>136.2925141055032</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>78.25386933754547</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>15.89194317638263</v>
       </c>
       <c r="S16" t="n">
-        <v>77.25400042844093</v>
+        <v>156.5440010023451</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>98.46851455657642</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3453905686778</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,22 +23734,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>398.7747202237783</v>
       </c>
       <c r="H17" t="n">
-        <v>192.3003636110725</v>
+        <v>279.3132495495361</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,16 +23785,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>9.18080488867642</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9121534983251</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>136.2925141055032</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>78.25386933754547</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>156.5440010023451</v>
       </c>
       <c r="T19" t="n">
-        <v>147.3711549217986</v>
+        <v>12.39973442693221</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3453905686778</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,22 +23971,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>398.7747202237783</v>
       </c>
       <c r="H20" t="n">
-        <v>107.8488491327921</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.66493745130344</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.0583497802358</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6496841845384</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>179.0302224625087</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>108.8746393525938</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -24138,7 +24138,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>98.35883354988852</v>
       </c>
       <c r="G22" t="n">
         <v>163.9121534983251</v>
@@ -24147,7 +24147,7 @@
         <v>136.2925141055032</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>78.25386933754547</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>156.5440010023451</v>
       </c>
       <c r="T22" t="n">
-        <v>237.9909010247135</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24217,13 +24217,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>369.058707917855</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>279.3132495495361</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.66493745130344</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>21.08052091701598</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
         <v>114.8328089874514</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24448,16 +24448,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>398.7747202237783</v>
+        <v>334.9981714837935</v>
       </c>
       <c r="H26" t="n">
         <v>279.3132495495361</v>
@@ -24499,13 +24499,13 @@
         <v>212.0583497802358</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6496841845384</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>75.65867912490467</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>114.8328089874504</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>15.89194317638263</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>98.94086581106879</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24685,16 +24685,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>398.7747202237783</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24736,19 +24736,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>31.01734149687147</v>
       </c>
       <c r="V29" t="n">
-        <v>32.37844305013505</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>98.94086581106886</v>
       </c>
       <c r="I31" t="n">
-        <v>78.25386933754547</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>20.68699647352241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24973,13 +24973,13 @@
         <v>212.0583497802358</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6496841845384</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>93.43447638709591</v>
       </c>
       <c r="W32" t="n">
-        <v>349.0841605716344</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>98.94086581106882</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>114.8328089874505</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>15.89194317638263</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>398.7747202237783</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>279.3132495495361</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>68.66493745130344</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>212.0583497802358</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6496841845384</v>
+        <v>10.34500248789513</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -25219,10 +25219,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>366.6275277462473</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>15.89194317638263</v>
       </c>
       <c r="S37" t="n">
-        <v>114.8328089874502</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>98.94086581106879</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>44.66914709037712</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.7747202237783</v>
       </c>
       <c r="H38" t="n">
         <v>279.3132495495361</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.0583497802358</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6496841845384</v>
+        <v>222.4033522681307</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25599,10 +25599,10 @@
         <v>15.89194317638263</v>
       </c>
       <c r="S40" t="n">
-        <v>98.94086581106772</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>98.94086581106865</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>366.6275277462474</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.7747202237783</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.66493745130344</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>212.0583497802358</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6496841845384</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>370.8174906121942</v>
       </c>
     </row>
     <row r="42">
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>114.8328089874513</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>15.89194317638263</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>98.94086581106772</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>332.873708905725</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25876,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.7747202237783</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>279.3132495495361</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,16 +25921,16 @@
         <v>212.0583497802358</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6496841845384</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>323.2612815047588</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>98.94086581106787</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>98.94086581106886</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>385074.93716249</v>
+        <v>385074.9371624899</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>385074.9371624899</v>
+        <v>385074.93716249</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>537809.2837584455</v>
+        <v>537809.2837584456</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>537809.2837584456</v>
+        <v>537809.2837584455</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>537809.2837584456</v>
+        <v>537809.2837584454</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>334904.5341064187</v>
+        <v>334904.5341064188</v>
       </c>
       <c r="C2" t="n">
-        <v>334904.5341064187</v>
+        <v>334904.5341064188</v>
       </c>
       <c r="D2" t="n">
-        <v>334904.5341064187</v>
+        <v>334904.5341064188</v>
       </c>
       <c r="E2" t="n">
         <v>178166.622177181</v>
       </c>
       <c r="F2" t="n">
-        <v>178166.622177181</v>
+        <v>178166.6221771809</v>
       </c>
       <c r="G2" t="n">
         <v>178166.6221771809</v>
@@ -26334,10 +26334,10 @@
         <v>178166.622177181</v>
       </c>
       <c r="I2" t="n">
-        <v>239577.5181825105</v>
+        <v>239577.5181825106</v>
       </c>
       <c r="J2" t="n">
-        <v>239577.5181825105</v>
+        <v>239577.5181825106</v>
       </c>
       <c r="K2" t="n">
         <v>239577.5181825105</v>
@@ -26346,7 +26346,7 @@
         <v>239577.5181825105</v>
       </c>
       <c r="M2" t="n">
-        <v>239577.5181825105</v>
+        <v>239577.5181825106</v>
       </c>
       <c r="N2" t="n">
         <v>239577.5181825106</v>
@@ -26355,7 +26355,7 @@
         <v>239577.5181825106</v>
       </c>
       <c r="P2" t="n">
-        <v>239577.5181825106</v>
+        <v>239577.5181825104</v>
       </c>
     </row>
     <row r="3">
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>70639.75877071456</v>
+        <v>70639.75877071454</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.516942757</v>
+        <v>120722.5169427569</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>237711.9570292986</v>
       </c>
       <c r="D4" t="n">
-        <v>237711.9570292985</v>
+        <v>237711.9570292986</v>
       </c>
       <c r="E4" t="n">
         <v>21393.66154562388</v>
@@ -26432,34 +26432,34 @@
         <v>21393.66154562388</v>
       </c>
       <c r="G4" t="n">
-        <v>21393.66154562387</v>
+        <v>21393.66154562388</v>
       </c>
       <c r="H4" t="n">
-        <v>21393.66154562387</v>
+        <v>21393.66154562389</v>
       </c>
       <c r="I4" t="n">
         <v>48799.63226793777</v>
       </c>
       <c r="J4" t="n">
-        <v>48799.63226793777</v>
+        <v>48799.63226793776</v>
       </c>
       <c r="K4" t="n">
-        <v>48799.63226793778</v>
+        <v>48799.63226793776</v>
       </c>
       <c r="L4" t="n">
-        <v>48799.63226793778</v>
+        <v>48799.63226793776</v>
       </c>
       <c r="M4" t="n">
-        <v>48799.63226793778</v>
+        <v>48799.63226793776</v>
       </c>
       <c r="N4" t="n">
-        <v>48799.63226793778</v>
+        <v>48799.63226793776</v>
       </c>
       <c r="O4" t="n">
         <v>48799.63226793778</v>
       </c>
       <c r="P4" t="n">
-        <v>48799.63226793778</v>
+        <v>48799.63226793776</v>
       </c>
     </row>
     <row r="5">
@@ -26493,25 +26493,25 @@
         <v>52451.881666522</v>
       </c>
       <c r="J5" t="n">
-        <v>52451.88166652201</v>
+        <v>52451.881666522</v>
       </c>
       <c r="K5" t="n">
-        <v>52451.88166652201</v>
+        <v>52451.881666522</v>
       </c>
       <c r="L5" t="n">
-        <v>52451.88166652201</v>
+        <v>52451.881666522</v>
       </c>
       <c r="M5" t="n">
-        <v>52451.88166652201</v>
+        <v>52451.881666522</v>
       </c>
       <c r="N5" t="n">
-        <v>52451.88166652201</v>
+        <v>52451.881666522</v>
       </c>
       <c r="O5" t="n">
-        <v>52451.88166652201</v>
+        <v>52451.881666522</v>
       </c>
       <c r="P5" t="n">
-        <v>52451.88166652201</v>
+        <v>52451.881666522</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-119113.8578112286</v>
       </c>
       <c r="C6" t="n">
-        <v>35511.86280689179</v>
+        <v>35511.86280689194</v>
       </c>
       <c r="D6" t="n">
         <v>35511.86280689191</v>
       </c>
       <c r="E6" t="n">
-        <v>-183484.7344902056</v>
+        <v>-184166.2036725066</v>
       </c>
       <c r="F6" t="n">
-        <v>120472.1062748731</v>
+        <v>119790.637092572</v>
       </c>
       <c r="G6" t="n">
-        <v>120472.1062748731</v>
+        <v>119790.6370925721</v>
       </c>
       <c r="H6" t="n">
-        <v>120472.1062748732</v>
+        <v>119790.6370925721</v>
       </c>
       <c r="I6" t="n">
-        <v>67686.24547733617</v>
+        <v>67271.78019071059</v>
       </c>
       <c r="J6" t="n">
-        <v>17603.48730529373</v>
+        <v>17189.02201866826</v>
       </c>
       <c r="K6" t="n">
-        <v>138326.0042480507</v>
+        <v>137911.538961425</v>
       </c>
       <c r="L6" t="n">
-        <v>138326.0042480507</v>
+        <v>137911.538961425</v>
       </c>
       <c r="M6" t="n">
-        <v>138326.0042480507</v>
+        <v>137911.5389614251</v>
       </c>
       <c r="N6" t="n">
-        <v>138326.0042480508</v>
+        <v>137911.5389614251</v>
       </c>
       <c r="O6" t="n">
-        <v>138326.0042480508</v>
+        <v>137911.5389614252</v>
       </c>
       <c r="P6" t="n">
-        <v>138326.0042480508</v>
+        <v>137911.538961425</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="E4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="F4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="G4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="H4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="I4" t="n">
         <v>727.0418023037232</v>
       </c>
       <c r="J4" t="n">
-        <v>727.0418023037233</v>
+        <v>727.0418023037232</v>
       </c>
       <c r="K4" t="n">
-        <v>727.0418023037233</v>
+        <v>727.0418023037232</v>
       </c>
       <c r="L4" t="n">
-        <v>727.0418023037233</v>
+        <v>727.0418023037232</v>
       </c>
       <c r="M4" t="n">
-        <v>727.0418023037233</v>
+        <v>727.0418023037232</v>
       </c>
       <c r="N4" t="n">
-        <v>727.0418023037233</v>
+        <v>727.0418023037232</v>
       </c>
       <c r="O4" t="n">
-        <v>727.0418023037233</v>
+        <v>727.0418023037232</v>
       </c>
       <c r="P4" t="n">
-        <v>727.0418023037233</v>
+        <v>727.0418023037232</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>265.6418965433891</v>
+        <v>265.641896543389</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603348</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>48.81198202095277</v>
       </c>
       <c r="C2" t="n">
-        <v>137.229337334555</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -27441,7 +27441,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>25.99047677530737</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>2.740257378336082</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>201.8651400984238</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>213.4027168294473</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>118.1733958625227</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>103.3533242180357</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,10 +27861,10 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>135.4426532608517</v>
+        <v>66.66693461922387</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
@@ -28067,19 +28067,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>244.0995083882523</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.04303787078732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>324.7212149383461</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603341</v>
+        <v>419.8550006816143</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34774,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>435.2356237478843</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N3" t="n">
-        <v>442.7574853255733</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34865,7 +34865,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>77.72901652706032</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34950,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>419.8550006816141</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P5" t="n">
-        <v>461.3999057603341</v>
+        <v>419.8550006816143</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35011,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>461.3999057603341</v>
+        <v>77.94592742031416</v>
       </c>
       <c r="L6" t="n">
-        <v>85.46778899800323</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>204.9421661810884</v>
       </c>
       <c r="L7" t="n">
-        <v>211.6076016844838</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
@@ -35111,7 +35111,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>293.5345574968697</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>128.2829598391535</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>442.7574853255733</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35184,19 +35184,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603341</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P8" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L9" t="n">
-        <v>160.7937153846613</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>352.3878357835378</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>24.0885825757785</v>
       </c>
       <c r="J11" t="n">
-        <v>237.2979951388035</v>
+        <v>237.2979951388038</v>
       </c>
       <c r="K11" t="n">
         <v>157.7061415448672</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>11.84594442477789</v>
+        <v>35.54019275246662</v>
       </c>
       <c r="J12" t="n">
         <v>56.27332793875463</v>
@@ -35500,19 +35500,19 @@
         <v>183.0967216490629</v>
       </c>
       <c r="N12" t="n">
-        <v>254.0966115245401</v>
+        <v>190.3078024021467</v>
       </c>
       <c r="O12" t="n">
-        <v>461.3999057603341</v>
+        <v>170.4472709450613</v>
       </c>
       <c r="P12" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q12" t="n">
-        <v>81.13137069328081</v>
+        <v>305.6578589447673</v>
       </c>
       <c r="R12" t="n">
-        <v>26.85287628867826</v>
+        <v>133.373583647169</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>27.59807230032543</v>
+        <v>106.306876995498</v>
       </c>
       <c r="K13" t="n">
         <v>58.29998557203081</v>
       </c>
       <c r="L13" t="n">
-        <v>270.1654855223233</v>
+        <v>253.2878065962968</v>
       </c>
       <c r="M13" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N13" t="n">
-        <v>461.3999057603341</v>
+        <v>83.65342183633207</v>
       </c>
       <c r="O13" t="n">
         <v>455.4507549201741</v>
       </c>
       <c r="P13" t="n">
-        <v>60.13381365259083</v>
+        <v>376.049171807447</v>
       </c>
       <c r="Q13" t="n">
         <v>32.5092791184628</v>
@@ -35646,7 +35646,7 @@
         <v>24.0885825757785</v>
       </c>
       <c r="J14" t="n">
-        <v>237.2979951388035</v>
+        <v>237.2979951388038</v>
       </c>
       <c r="K14" t="n">
         <v>157.7061415448672</v>
@@ -35728,10 +35728,10 @@
         <v>56.27332793875463</v>
       </c>
       <c r="K15" t="n">
-        <v>109.0085239834561</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L15" t="n">
-        <v>461.3999057603341</v>
+        <v>154.1788603949907</v>
       </c>
       <c r="M15" t="n">
         <v>183.0967216490629</v>
@@ -35740,16 +35740,16 @@
         <v>190.3078024021467</v>
       </c>
       <c r="O15" t="n">
-        <v>461.3999057603341</v>
+        <v>170.4472709450613</v>
       </c>
       <c r="P15" t="n">
-        <v>133.6256049973981</v>
+        <v>440.0557195934333</v>
       </c>
       <c r="Q15" t="n">
         <v>81.13137069328081</v>
       </c>
       <c r="R15" t="n">
-        <v>87.50069248097552</v>
+        <v>26.85287628867826</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>27.59807230032543</v>
+        <v>106.306876995498</v>
       </c>
       <c r="K16" t="n">
-        <v>58.29998557203081</v>
+        <v>308.0803988185177</v>
       </c>
       <c r="L16" t="n">
         <v>459.7034910827916</v>
       </c>
       <c r="M16" t="n">
-        <v>84.36980173188198</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N16" t="n">
-        <v>332.9766460734619</v>
+        <v>324.8901815543715</v>
       </c>
       <c r="O16" t="n">
-        <v>455.4507549201741</v>
+        <v>73.93325562400919</v>
       </c>
       <c r="P16" t="n">
-        <v>376.049171807447</v>
+        <v>60.13381365259083</v>
       </c>
       <c r="Q16" t="n">
         <v>32.5092791184628</v>
@@ -35883,7 +35883,7 @@
         <v>24.0885825757785</v>
       </c>
       <c r="J17" t="n">
-        <v>99.66890320637125</v>
+        <v>237.2979951388038</v>
       </c>
       <c r="K17" t="n">
         <v>157.7061415448672</v>
@@ -35904,7 +35904,7 @@
         <v>181.1393740908204</v>
       </c>
       <c r="Q17" t="n">
-        <v>265.7500753908529</v>
+        <v>128.1209834584209</v>
       </c>
       <c r="R17" t="n">
         <v>214.2842462064</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>35.54019275246662</v>
+        <v>11.84594442477789</v>
       </c>
       <c r="J18" t="n">
         <v>56.27332793875463</v>
       </c>
       <c r="K18" t="n">
-        <v>109.0085239834561</v>
+        <v>411.2557336170047</v>
       </c>
       <c r="L18" t="n">
         <v>154.1788603949907</v>
@@ -35974,7 +35974,7 @@
         <v>183.0967216490629</v>
       </c>
       <c r="N18" t="n">
-        <v>362.3400563495159</v>
+        <v>190.3078024021467</v>
       </c>
       <c r="O18" t="n">
         <v>170.4472709450613</v>
@@ -35983,10 +35983,10 @@
         <v>133.6256049973981</v>
       </c>
       <c r="Q18" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R18" t="n">
-        <v>133.373583647169</v>
+        <v>26.85287628867826</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>27.59807230032543</v>
+        <v>106.306876995498</v>
       </c>
       <c r="K19" t="n">
-        <v>58.29998557203081</v>
+        <v>308.0803988185177</v>
       </c>
       <c r="L19" t="n">
         <v>459.7034910827916</v>
       </c>
       <c r="M19" t="n">
-        <v>84.36980173188198</v>
+        <v>233.8187847195789</v>
       </c>
       <c r="N19" t="n">
-        <v>332.9766460734619</v>
+        <v>83.65342183633207</v>
       </c>
       <c r="O19" t="n">
-        <v>455.4507549201741</v>
+        <v>73.93325562400919</v>
       </c>
       <c r="P19" t="n">
         <v>376.049171807447</v>
       </c>
       <c r="Q19" t="n">
-        <v>32.5092791184628</v>
+        <v>185.4118017224012</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>24.0885825757785</v>
       </c>
       <c r="J20" t="n">
-        <v>99.66890320637125</v>
+        <v>237.2979951388038</v>
       </c>
       <c r="K20" t="n">
         <v>157.7061415448672</v>
@@ -36138,7 +36138,7 @@
         <v>218.8722682483836</v>
       </c>
       <c r="P20" t="n">
-        <v>318.7684660232525</v>
+        <v>181.1393740908204</v>
       </c>
       <c r="Q20" t="n">
         <v>128.1209834584209</v>
@@ -36199,7 +36199,7 @@
         <v>35.54019275246662</v>
       </c>
       <c r="J21" t="n">
-        <v>56.27332793875463</v>
+        <v>351.3263506353113</v>
       </c>
       <c r="K21" t="n">
         <v>109.0085239834561</v>
@@ -36208,10 +36208,10 @@
         <v>154.1788603949907</v>
       </c>
       <c r="M21" t="n">
-        <v>461.3999057603341</v>
+        <v>183.0967216490629</v>
       </c>
       <c r="N21" t="n">
-        <v>461.3999057603341</v>
+        <v>190.3078024021467</v>
       </c>
       <c r="O21" t="n">
         <v>170.4472709450613</v>
@@ -36220,10 +36220,10 @@
         <v>133.6256049973981</v>
       </c>
       <c r="Q21" t="n">
-        <v>84.03687223824478</v>
+        <v>444.8998443696373</v>
       </c>
       <c r="R21" t="n">
-        <v>133.373583647169</v>
+        <v>26.85287628867826</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>27.59807230032543</v>
+        <v>106.306876995498</v>
       </c>
       <c r="K22" t="n">
-        <v>58.29998557203081</v>
+        <v>308.0803988185177</v>
       </c>
       <c r="L22" t="n">
         <v>459.7034910827916</v>
       </c>
       <c r="M22" t="n">
-        <v>271.8619001998658</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N22" t="n">
-        <v>461.3999057603341</v>
+        <v>83.65342183633207</v>
       </c>
       <c r="O22" t="n">
-        <v>455.4507549201741</v>
+        <v>73.93325562400919</v>
       </c>
       <c r="P22" t="n">
-        <v>60.13381365259083</v>
+        <v>148.4680507666921</v>
       </c>
       <c r="Q22" t="n">
-        <v>32.5092791184628</v>
+        <v>185.4118017224012</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36375,13 +36375,13 @@
         <v>218.8722682483836</v>
       </c>
       <c r="P23" t="n">
-        <v>478.0998886290343</v>
+        <v>631.8763111318134</v>
       </c>
       <c r="Q23" t="n">
         <v>624.9380616025978</v>
       </c>
       <c r="R23" t="n">
-        <v>214.2842462064</v>
+        <v>60.50782370362109</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>11.84594442477789</v>
       </c>
       <c r="J24" t="n">
-        <v>247.2082193374698</v>
+        <v>140.6875119789788</v>
       </c>
       <c r="K24" t="n">
         <v>109.0085239834561</v>
@@ -36460,7 +36460,7 @@
         <v>572.7122239951677</v>
       </c>
       <c r="R24" t="n">
-        <v>26.85287628867826</v>
+        <v>133.373583647169</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>495.3549827090239</v>
       </c>
       <c r="K26" t="n">
-        <v>454.6666560830814</v>
+        <v>454.6666560830809</v>
       </c>
       <c r="L26" t="n">
         <v>201.7055212930417</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>35.54019275246662</v>
+        <v>11.84594442477789</v>
       </c>
       <c r="J27" t="n">
-        <v>351.3263506353113</v>
+        <v>247.2082193374698</v>
       </c>
       <c r="K27" t="n">
-        <v>366.2562903013219</v>
+        <v>109.0085239834561</v>
       </c>
       <c r="L27" t="n">
         <v>154.1788603949907</v>
@@ -36694,10 +36694,10 @@
         <v>133.6256049973981</v>
       </c>
       <c r="Q27" t="n">
-        <v>81.13137069328081</v>
+        <v>572.7122239951677</v>
       </c>
       <c r="R27" t="n">
-        <v>133.373583647169</v>
+        <v>26.85287628867826</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>106.3068769954982</v>
+        <v>106.3068769954977</v>
       </c>
       <c r="K28" t="n">
         <v>308.0803988185177</v>
@@ -36849,13 +36849,13 @@
         <v>218.8722682483836</v>
       </c>
       <c r="P29" t="n">
-        <v>631.8763111318138</v>
+        <v>478.0998886290343</v>
       </c>
       <c r="Q29" t="n">
         <v>624.9380616025978</v>
       </c>
       <c r="R29" t="n">
-        <v>60.50782370362109</v>
+        <v>214.2842462064</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>11.84594442477789</v>
       </c>
       <c r="J30" t="n">
-        <v>247.2082193374698</v>
+        <v>351.3263506353113</v>
       </c>
       <c r="K30" t="n">
         <v>109.0085239834561</v>
@@ -36931,7 +36931,7 @@
         <v>133.6256049973981</v>
       </c>
       <c r="Q30" t="n">
-        <v>572.7122239951677</v>
+        <v>468.5940926973263</v>
       </c>
       <c r="R30" t="n">
         <v>26.85287628867826</v>
@@ -36998,7 +36998,7 @@
         <v>459.7034910827916</v>
       </c>
       <c r="M31" t="n">
-        <v>502.082408259985</v>
+        <v>502.0824082599848</v>
       </c>
       <c r="N31" t="n">
         <v>485.7068792523727</v>
@@ -37071,7 +37071,7 @@
         <v>495.3549827090239</v>
       </c>
       <c r="K32" t="n">
-        <v>157.7061415448672</v>
+        <v>727.0418023037232</v>
       </c>
       <c r="L32" t="n">
         <v>201.7055212930417</v>
@@ -37083,13 +37083,13 @@
         <v>234.1075668712375</v>
       </c>
       <c r="O32" t="n">
-        <v>218.8722682483836</v>
+        <v>443.3142001719183</v>
       </c>
       <c r="P32" t="n">
-        <v>727.0418023037233</v>
+        <v>181.1393740908204</v>
       </c>
       <c r="Q32" t="n">
-        <v>375.9961479279092</v>
+        <v>128.1209834584209</v>
       </c>
       <c r="R32" t="n">
         <v>214.2842462064</v>
@@ -37147,7 +37147,7 @@
         <v>11.84594442477789</v>
       </c>
       <c r="J33" t="n">
-        <v>247.2082193374698</v>
+        <v>351.3263506353113</v>
       </c>
       <c r="K33" t="n">
         <v>109.0085239834561</v>
@@ -37168,7 +37168,7 @@
         <v>133.6256049973981</v>
       </c>
       <c r="Q33" t="n">
-        <v>572.7122239951677</v>
+        <v>468.5940926973263</v>
       </c>
       <c r="R33" t="n">
         <v>26.85287628867826</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3068769954982</v>
+        <v>106.3068769954977</v>
       </c>
       <c r="K34" t="n">
         <v>308.0803988185177</v>
@@ -37305,13 +37305,13 @@
         <v>24.0885825757785</v>
       </c>
       <c r="J35" t="n">
-        <v>495.3549827090239</v>
+        <v>99.66890320637125</v>
       </c>
       <c r="K35" t="n">
         <v>157.7061415448672</v>
       </c>
       <c r="L35" t="n">
-        <v>201.7055212930417</v>
+        <v>727.0418023037232</v>
       </c>
       <c r="M35" t="n">
         <v>229.6345231788223</v>
@@ -37320,13 +37320,13 @@
         <v>234.1075668712375</v>
       </c>
       <c r="O35" t="n">
-        <v>218.8722682483836</v>
+        <v>727.0418023037232</v>
       </c>
       <c r="P35" t="n">
-        <v>478.0998886290348</v>
+        <v>181.1393740908204</v>
       </c>
       <c r="Q35" t="n">
-        <v>624.9380616025978</v>
+        <v>284.0788405774431</v>
       </c>
       <c r="R35" t="n">
         <v>214.2842462064</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>35.54019275246662</v>
+        <v>11.84594442477789</v>
       </c>
       <c r="J36" t="n">
-        <v>56.27332793875463</v>
+        <v>247.2082193374698</v>
       </c>
       <c r="K36" t="n">
-        <v>276.2491670544825</v>
+        <v>109.0085239834561</v>
       </c>
       <c r="L36" t="n">
         <v>154.1788603949907</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>106.3068769954982</v>
+        <v>106.3068769954977</v>
       </c>
       <c r="K37" t="n">
         <v>308.0803988185177</v>
@@ -37542,13 +37542,13 @@
         <v>24.0885825757785</v>
       </c>
       <c r="J38" t="n">
-        <v>495.3549827090239</v>
+        <v>99.66890320637125</v>
       </c>
       <c r="K38" t="n">
-        <v>157.7061415448672</v>
+        <v>727.0418023037232</v>
       </c>
       <c r="L38" t="n">
-        <v>201.7055212930417</v>
+        <v>727.0418023037232</v>
       </c>
       <c r="M38" t="n">
         <v>229.6345231788223</v>
@@ -37560,13 +37560,13 @@
         <v>218.8722682483836</v>
       </c>
       <c r="P38" t="n">
-        <v>478.0998886290348</v>
+        <v>429.7075270091053</v>
       </c>
       <c r="Q38" t="n">
-        <v>624.9380616025978</v>
+        <v>128.1209834584209</v>
       </c>
       <c r="R38" t="n">
-        <v>214.2842462064</v>
+        <v>60.50782370362109</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>106.306876995498</v>
+        <v>106.3068769954977</v>
       </c>
       <c r="K40" t="n">
         <v>308.0803988185177</v>
@@ -37782,7 +37782,7 @@
         <v>495.3549827090239</v>
       </c>
       <c r="K41" t="n">
-        <v>454.6666560830814</v>
+        <v>157.7061415448672</v>
       </c>
       <c r="L41" t="n">
         <v>201.7055212930417</v>
@@ -37797,13 +37797,13 @@
         <v>218.8722682483836</v>
       </c>
       <c r="P41" t="n">
-        <v>181.1393740908204</v>
+        <v>631.8763111318134</v>
       </c>
       <c r="Q41" t="n">
         <v>624.9380616025978</v>
       </c>
       <c r="R41" t="n">
-        <v>214.2842462064</v>
+        <v>60.50782370362109</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>106.3068769954982</v>
+        <v>106.3068769954977</v>
       </c>
       <c r="K43" t="n">
         <v>308.0803988185177</v>
@@ -38019,10 +38019,10 @@
         <v>495.3549827090239</v>
       </c>
       <c r="K44" t="n">
-        <v>157.7061415448672</v>
+        <v>579.9238757193552</v>
       </c>
       <c r="L44" t="n">
-        <v>201.7055212930417</v>
+        <v>727.0418023037232</v>
       </c>
       <c r="M44" t="n">
         <v>229.6345231788223</v>
@@ -38034,13 +38034,13 @@
         <v>218.8722682483836</v>
       </c>
       <c r="P44" t="n">
-        <v>478.0998886290348</v>
+        <v>181.1393740908204</v>
       </c>
       <c r="Q44" t="n">
-        <v>624.9380616025978</v>
+        <v>128.1209834584209</v>
       </c>
       <c r="R44" t="n">
-        <v>214.2842462064</v>
+        <v>60.50782370362109</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>11.84594442477789</v>
+        <v>35.54019275246662</v>
       </c>
       <c r="J45" t="n">
-        <v>247.2082193374698</v>
+        <v>351.3263506353113</v>
       </c>
       <c r="K45" t="n">
         <v>109.0085239834561</v>
@@ -38116,10 +38116,10 @@
         <v>133.6256049973981</v>
       </c>
       <c r="Q45" t="n">
-        <v>572.7122239951677</v>
+        <v>338.3791370111466</v>
       </c>
       <c r="R45" t="n">
-        <v>26.85287628867826</v>
+        <v>133.373583647169</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>106.3068769954982</v>
+        <v>106.306876995498</v>
       </c>
       <c r="K46" t="n">
         <v>308.0803988185177</v>
